--- a/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
@@ -18657,7 +18657,7 @@
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>30/09/2025 15:52:31</t>
+          <t>30/09/2025 15:59:59</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
@@ -18657,7 +18657,7 @@
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>30/09/2025 15:59:59</t>
+          <t>30/09/2025 16:33:52</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
@@ -506,8 +506,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="32.4" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="22.8" customWidth="1" min="3" max="3"/>
     <col width="10.8" customWidth="1" min="4" max="4"/>
     <col width="15.6" customWidth="1" min="5" max="5"/>
@@ -585,12 +585,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>00000000</t>
+          <t>00000000006</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>006 -ACORDO TRAB</t>
+          <t>ACORDO TRAB</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -639,12 +639,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>00000000</t>
+          <t>00000000010</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>010 -FORN. DIVERSOS</t>
+          <t>FORN. DIVERSOS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -693,12 +693,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>00212562</t>
+          <t>002125620014</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>0014-WEIR DO BRASIL LTDA</t>
+          <t>WEIR DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -747,12 +747,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>00212562</t>
+          <t>002125620014</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>0014-WEIR DO BRASIL LTDA</t>
+          <t>WEIR DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -801,12 +801,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>00212562</t>
+          <t>002125620014</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0014-WEIR DO BRASIL LTDA</t>
+          <t>WEIR DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -855,12 +855,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>00212562</t>
+          <t>002125620014</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>0014-WEIR DO BRASIL LTDA</t>
+          <t>WEIR DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -909,12 +909,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>00212562</t>
+          <t>002125620014</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>0014-WEIR DO BRASIL LTDA</t>
+          <t>WEIR DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -963,12 +963,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>00212562</t>
+          <t>002125620014</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>0014-WEIR DO BRASIL LTDA</t>
+          <t>WEIR DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1017,12 +1017,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>00212562</t>
+          <t>002125620014</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0014-WEIR DO BRASIL LTDA</t>
+          <t>WEIR DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1071,12 +1071,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>00212562</t>
+          <t>002125620014</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>0014-WEIR DO BRASIL LTDA</t>
+          <t>WEIR DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1125,12 +1125,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>00972696</t>
+          <t>009726960001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>0001-TRANSPORTE GENEROSO</t>
+          <t>TRANSPORTE GENEROSO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1179,12 +1179,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>00972696</t>
+          <t>009726960003</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>0003-TRANSPORTE GENEROSO</t>
+          <t>TRANSPORTE GENEROSO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1233,12 +1233,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>01291387</t>
+          <t>012913870006</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>0006-GRAND POINT</t>
+          <t>GRAND POINT</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1287,12 +1287,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>01417222</t>
+          <t>014172220001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>0001-EST UNIFICADO</t>
+          <t>EST UNIFICADO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1341,12 +1341,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>01554285</t>
+          <t>015542850001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>0001-CERTISIGN</t>
+          <t>CERTISIGN</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1395,12 +1395,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>04915315</t>
+          <t>049153150001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>0001-VENTANA SERRA BR AGE</t>
+          <t>VENTANA SERRA BR AGE</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1449,12 +1449,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>04915315</t>
+          <t>049153150001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>0001-VENTANA SERRA BR AGE</t>
+          <t>VENTANA SERRA BR AGE</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1503,12 +1503,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>06349916</t>
+          <t>063499160001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>0001-ANDRITZ</t>
+          <t>ANDRITZ</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1557,12 +1557,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>06942793</t>
+          <t>069427930001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>0001-ELETRO PAINEL</t>
+          <t>ELETRO PAINEL</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1611,12 +1611,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>07083656</t>
+          <t>070836560007</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>0007-SAND MIN A R TECHNOL</t>
+          <t>SAND MIN A R TECHNOL</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1665,12 +1665,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>07083656</t>
+          <t>070836560007</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>0007-SAND MIN A R TECHNOL</t>
+          <t>SAND MIN A R TECHNOL</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1719,12 +1719,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>07175725</t>
+          <t>071757250004</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>0004-WEG EQUIPAMENTOS</t>
+          <t>WEG EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1773,12 +1773,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>07175725</t>
+          <t>071757250010</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>0010-WEG EQUIPAMENTOS</t>
+          <t>WEG EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1827,12 +1827,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>07327529</t>
+          <t>073275290001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>0001-TECSOL</t>
+          <t>TECSOL</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1881,12 +1881,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>07327529</t>
+          <t>073275290001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>0001-TECSOL</t>
+          <t>TECSOL</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>07358761</t>
+          <t>073587610239</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>0239-GERDAU ACOS LONGOS</t>
+          <t>GERDAU ACOS LONGOS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1989,12 +1989,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>07649995</t>
+          <t>076499950001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>0001-BE ME CAR AMBULANCIA</t>
+          <t>BE ME CAR AMBULANCIA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -2043,12 +2043,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>07730155</t>
+          <t>077301550001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>0001-SPELATION</t>
+          <t>SPELATION</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -2097,12 +2097,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>07876554</t>
+          <t>078765540001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>0001-CASTELLAR GUIMARAES</t>
+          <t>CASTELLAR GUIMARAES</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -2151,12 +2151,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>07943881</t>
+          <t>079438810001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>0001-GRAFICA CENTRAL</t>
+          <t>GRAFICA CENTRAL</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -2205,12 +2205,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>08085788</t>
+          <t>080857880001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>0001-DS DIAGNOSTICA</t>
+          <t>DS DIAGNOSTICA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -2259,12 +2259,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>09279052</t>
+          <t>092790520001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>0001-LEBBE COMUNICACAO</t>
+          <t>LEBBE COMUNICACAO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -2313,12 +2313,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>10426715</t>
+          <t>104267150001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>0001-CONSORCIO OTIMO</t>
+          <t>CONSORCIO OTIMO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -2367,12 +2367,12 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>11972633</t>
+          <t>119726330002</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>0002-LANTEX DO BRASIL IND</t>
+          <t>LANTEX DO BRASIL IND</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2421,12 +2421,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>12538156</t>
+          <t>125381560001</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>0001-MASON EQUIPAMENTOS</t>
+          <t>MASON EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -2475,12 +2475,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>12998709</t>
+          <t>129987090001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>0001-PC BELO HORIZONTE</t>
+          <t>PC BELO HORIZONTE</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -2529,12 +2529,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>13754337</t>
+          <t>137543370002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>0002-PLANO PRODUTOS PROMO</t>
+          <t>PLANO PRODUTOS PROMO</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -2583,12 +2583,12 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>14307021</t>
+          <t>143070210001</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>0001-RSOM PRODUCOES E EVE</t>
+          <t>RSOM PRODUCOES E EVE</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -2637,12 +2637,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>14307021</t>
+          <t>143070210001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>0001-RSOM PRODUCOES E EVE</t>
+          <t>RSOM PRODUCOES E EVE</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -2691,12 +2691,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>14309992</t>
+          <t>143099920001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>0001-WEG DRIVES E CONTROL</t>
+          <t>WEG DRIVES E CONTROL</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -2745,12 +2745,12 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>17170150</t>
+          <t>171701500001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>0001-VALLOUREC TUBOS DO B</t>
+          <t>VALLOUREC TUBOS DO B</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2799,12 +2799,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>17170150</t>
+          <t>171701500001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>0001-VALLOUREC TUBOS DO B</t>
+          <t>VALLOUREC TUBOS DO B</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -2853,12 +2853,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>17431354</t>
+          <t>174313540001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>0001-TAKONO</t>
+          <t>TAKONO</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2907,12 +2907,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>17471442</t>
+          <t>174714420001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>0001-AGRO INDUSTRIAL BELA</t>
+          <t>AGRO INDUSTRIAL BELA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -2961,12 +2961,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>19258480</t>
+          <t>192584800001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>0001-GMQ PARTICIPACOES LT</t>
+          <t>GMQ PARTICIPACOES LT</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -3015,12 +3015,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>20325542</t>
+          <t>203255420001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>0001-ARCO IRIS</t>
+          <t>ARCO IRIS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -3069,12 +3069,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>20590353</t>
+          <t>205903530001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>0001-CENTRAL DOS PARA BRI</t>
+          <t>CENTRAL DOS PARA BRI</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -3123,12 +3123,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>20855271</t>
+          <t>208552710001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>0001-GRACIELLE CARRIERI D</t>
+          <t>GRACIELLE CARRIERI D</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -3177,12 +3177,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>21265392</t>
+          <t>212653920001</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>0001-SNC ESTRUTURAS</t>
+          <t>SNC ESTRUTURAS</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -3231,12 +3231,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>21513114</t>
+          <t>215131140001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>0001-LIBERDADE, SOCIEDADE</t>
+          <t>LIBERDADE, SOCIEDADE</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -3285,12 +3285,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>21513114</t>
+          <t>215131140001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>0001-LIBERDADE, SOCIEDADE</t>
+          <t>LIBERDADE, SOCIEDADE</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -3339,12 +3339,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>24498520</t>
+          <t>244985200001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>0001-ROSA CLARO ARTIGOS P</t>
+          <t>ROSA CLARO ARTIGOS P</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -3393,12 +3393,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>24498520</t>
+          <t>244985200001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>0001-ROSA CLARO ARTIGOS P</t>
+          <t>ROSA CLARO ARTIGOS P</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -3447,12 +3447,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>25662511</t>
+          <t>256625110001</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>0001-JUNIOR FESTA</t>
+          <t>JUNIOR FESTA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -3501,12 +3501,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>26122684</t>
+          <t>261226840001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>0001-VIACAO GW</t>
+          <t>VIACAO GW</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -3555,12 +3555,12 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>29302348</t>
+          <t>293023480003</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>0003-GURGELMIX MAQUINAS E</t>
+          <t>GURGELMIX MAQUINAS E</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -3609,12 +3609,12 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>30457205</t>
+          <t>304572050001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>0001-FEEDZ TECNOLOGIA S/A</t>
+          <t>FEEDZ TECNOLOGIA S/A</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -3663,12 +3663,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>31949709</t>
+          <t>319497090001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>0001-FONSECA &amp; CIA MAGAZI</t>
+          <t>FONSECA &amp; CIA MAGAZI</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -3717,12 +3717,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>33131541</t>
+          <t>331315410001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>0001-COMPANHIA BRASILEIRA</t>
+          <t>COMPANHIA BRASILEIRA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -3771,12 +3771,12 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>33131541</t>
+          <t>331315410001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>0001-COMPANHIA BRASILEIRA</t>
+          <t>COMPANHIA BRASILEIRA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -3825,12 +3825,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>33131541</t>
+          <t>331315410001</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>0001-COMPANHIA BRASILEIRA</t>
+          <t>COMPANHIA BRASILEIRA</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3879,12 +3879,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>33131541</t>
+          <t>331315410001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>0001-COMPANHIA BRASILEIRA</t>
+          <t>COMPANHIA BRASILEIRA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -3933,12 +3933,12 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>33131541</t>
+          <t>331315410001</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>0001-COMPANHIA BRASILEIRA</t>
+          <t>COMPANHIA BRASILEIRA</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -3987,12 +3987,12 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>33131541</t>
+          <t>331315410001</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>0001-COMPANHIA BRASILEIRA</t>
+          <t>COMPANHIA BRASILEIRA</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -4041,12 +4041,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>33131541</t>
+          <t>331315410001</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>0001-COMPANHIA BRASILEIRA</t>
+          <t>COMPANHIA BRASILEIRA</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -4095,12 +4095,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>33131541</t>
+          <t>331315410001</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>0001-COMPANHIA BRASILEIRA</t>
+          <t>COMPANHIA BRASILEIRA</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -4149,12 +4149,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>0001-VALE</t>
+          <t>VALE</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -4203,12 +4203,12 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -4257,12 +4257,12 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -4311,12 +4311,12 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -4365,12 +4365,12 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -4419,12 +4419,12 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -4473,12 +4473,12 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -4527,12 +4527,12 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -4581,12 +4581,12 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -4635,12 +4635,12 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -4689,12 +4689,12 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -4743,12 +4743,12 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -4797,12 +4797,12 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -4851,12 +4851,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -4905,12 +4905,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -4959,12 +4959,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -5013,12 +5013,12 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -5067,12 +5067,12 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -5121,12 +5121,12 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -5175,12 +5175,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -5229,12 +5229,12 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100034</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>0034-CVRD MINA FA RI PEIX</t>
+          <t>CVRD MINA FA RI PEIX</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -5283,12 +5283,12 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100034</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>0034-CVRD MINA FA RI PEIX</t>
+          <t>CVRD MINA FA RI PEIX</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -5337,12 +5337,12 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100034</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>0034-CVRD MINA FA RI PEIX</t>
+          <t>CVRD MINA FA RI PEIX</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -5391,12 +5391,12 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100034</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>0034-CVRD MINA FA RI PEIX</t>
+          <t>CVRD MINA FA RI PEIX</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -5445,12 +5445,12 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100034</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>0034-CVRD MINA FA RI PEIX</t>
+          <t>CVRD MINA FA RI PEIX</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -5499,12 +5499,12 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100035</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>0035-CVRD MINA DE MUTUCA</t>
+          <t>CVRD MINA DE MUTUCA</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -5553,12 +5553,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100035</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>0035-CVRD MINA DE MUTUCA</t>
+          <t>CVRD MINA DE MUTUCA</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -5607,12 +5607,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100035</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>0035-CVRD MINA DE MUTUCA</t>
+          <t>CVRD MINA DE MUTUCA</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -5661,12 +5661,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100044</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>0044-CVRD MINA DE PICO</t>
+          <t>CVRD MINA DE PICO</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -5715,12 +5715,12 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100044</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>0044-CVRD MINA DE PICO</t>
+          <t>CVRD MINA DE PICO</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -5769,12 +5769,12 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>34878111</t>
+          <t>348781110001</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>0001-MAPA LOCACOES DE CON</t>
+          <t>MAPA LOCACOES DE CON</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -5823,12 +5823,12 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>34878111</t>
+          <t>348781110001</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>0001-MAPA LOCACOES DE CON</t>
+          <t>MAPA LOCACOES DE CON</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -5877,12 +5877,12 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>35521164</t>
+          <t>355211640001</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>0001-AGATHA PAMELA</t>
+          <t>AGATHA PAMELA</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -5931,12 +5931,12 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>36438334</t>
+          <t>364383340001</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>0001-ALINE PARREIRAS</t>
+          <t>ALINE PARREIRAS</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -5985,12 +5985,12 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>36669629</t>
+          <t>366696290001</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>0001-MINAS COMUNICA</t>
+          <t>MINAS COMUNICA</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -6039,12 +6039,12 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>37720029</t>
+          <t>377200290003</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>0003-ROMA FRANCE</t>
+          <t>ROMA FRANCE</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -6093,12 +6093,12 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>38460248</t>
+          <t>384602480001</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>0001-RESULTADO ENGENHARIA</t>
+          <t>RESULTADO ENGENHARIA</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -6147,12 +6147,12 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>40339105</t>
+          <t>403391050001</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>0001-G P S GERENCIA PRO S</t>
+          <t>G P S GERENCIA PRO S</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -6201,12 +6201,12 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>41147872</t>
+          <t>411478720001</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>0001-CL PREMOLDADOS</t>
+          <t>CL PREMOLDADOS</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -6255,12 +6255,12 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>41711010</t>
+          <t>417110100001</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>0001-DENISE BLEME</t>
+          <t>DENISE BLEME</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -6309,12 +6309,12 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>43162504</t>
+          <t>431625040001</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>0001-MIL CORES GRAFICA DI</t>
+          <t>MIL CORES GRAFICA DI</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -6363,12 +6363,12 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>43626407</t>
+          <t>436264070006</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>0006-SANDVIK ROCK PROCESS</t>
+          <t>SANDVIK ROCK PROCESS</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -6417,12 +6417,12 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>43626407</t>
+          <t>436264070007</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>0007-SANDVIK ROCK PROCESS</t>
+          <t>SANDVIK ROCK PROCESS</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -6471,12 +6471,12 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>47960950</t>
+          <t>479609500265</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>0265-MAGAZINE LUIZA S/A</t>
+          <t>MAGAZINE LUIZA S/A</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -6525,12 +6525,12 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>47960950</t>
+          <t>479609500643</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>0643-MAGAZINE LUIZA S/A</t>
+          <t>MAGAZINE LUIZA S/A</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -6579,12 +6579,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>47960950</t>
+          <t>479609501002</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>1002-MAGAZINE LUIZA S/A</t>
+          <t>MAGAZINE LUIZA S/A</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -6633,12 +6633,12 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>49592808</t>
+          <t>495928080001</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>0001-REALCE CONSTRUCAO</t>
+          <t>REALCE CONSTRUCAO</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -6687,12 +6687,12 @@
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>51948344</t>
+          <t>519483440001</t>
         </is>
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>0001-IDEAL SERVICOS</t>
+          <t>IDEAL SERVICOS</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -6741,12 +6741,12 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>51948344</t>
+          <t>519483440001</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>0001-IDEAL SERVICOS</t>
+          <t>IDEAL SERVICOS</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -6795,12 +6795,12 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>58488046</t>
+          <t>584880460001</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>0001-MARIA CLARA DE MELO</t>
+          <t>MARIA CLARA DE MELO</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -6849,12 +6849,12 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>65177214</t>
+          <t>651772140001</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>0001-PLEIADES DESENVOLVIM</t>
+          <t>PLEIADES DESENVOLVIM</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -6903,12 +6903,12 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>72381189</t>
+          <t>723811890010</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>0010-DELL COMPUTADORES DO</t>
+          <t>DELL COMPUTADORES DO</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -6957,12 +6957,12 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>90999999</t>
+          <t>909999990999</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>0999-FOLHA SALARIO</t>
+          <t>FOLHA SALARIO</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -7009,14 +7009,10 @@
       <c r="L120" s="3" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="inlineStr">
-        <is>
-          <t>ESTADO</t>
-        </is>
-      </c>
+      <c r="A121" s="3" t="inlineStr"/>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>00  -ESTADO</t>
+          <t>ESTADO  -00  -ESTADO</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -7063,14 +7059,10 @@
       <c r="L121" s="3" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="inlineStr">
-        <is>
-          <t>ESTADO</t>
-        </is>
-      </c>
+      <c r="A122" s="3" t="inlineStr"/>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>00  -ESTADO</t>
+          <t>ESTADO  -00  -ESTADO</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -7117,14 +7109,10 @@
       <c r="L122" s="3" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>INPS</t>
-        </is>
-      </c>
+      <c r="A123" s="3" t="inlineStr"/>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>0000-INPS</t>
+          <t>INPS    -0000-INPS</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -7171,14 +7159,10 @@
       <c r="L123" s="3" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>INPS</t>
-        </is>
-      </c>
+      <c r="A124" s="3" t="inlineStr"/>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>0000-INPS</t>
+          <t>INPS    -0000-INPS</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -7225,14 +7209,10 @@
       <c r="L124" s="3" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>INPS</t>
-        </is>
-      </c>
+      <c r="A125" s="3" t="inlineStr"/>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>0000-INPS</t>
+          <t>INPS    -0000-INPS</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -7279,14 +7259,10 @@
       <c r="L125" s="3" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="inlineStr">
-        <is>
-          <t>INPS</t>
-        </is>
-      </c>
+      <c r="A126" s="3" t="inlineStr"/>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>0000-INPS</t>
+          <t>INPS    -0000-INPS</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -7333,14 +7309,10 @@
       <c r="L126" s="3" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="inlineStr">
-        <is>
-          <t>INPS</t>
-        </is>
-      </c>
+      <c r="A127" s="3" t="inlineStr"/>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>0000-INPS</t>
+          <t>INPS    -0000-INPS</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -7387,14 +7359,10 @@
       <c r="L127" s="3" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="inlineStr">
-        <is>
-          <t>MUNIC</t>
-        </is>
-      </c>
+      <c r="A128" s="3" t="inlineStr"/>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>0000-MUNICIPIO</t>
+          <t>MUNIC   -0000-MUNICIPIO</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -7441,14 +7409,10 @@
       <c r="L128" s="3" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="inlineStr">
-        <is>
-          <t>MUNIC</t>
-        </is>
-      </c>
+      <c r="A129" s="3" t="inlineStr"/>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>0000-MUNICIPIO</t>
+          <t>MUNIC   -0000-MUNICIPIO</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -7495,14 +7459,10 @@
       <c r="L129" s="3" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="inlineStr">
-        <is>
-          <t>MUNIC</t>
-        </is>
-      </c>
+      <c r="A130" s="3" t="inlineStr"/>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>0000-MUNICIPIO</t>
+          <t>MUNIC   -0000-MUNICIPIO</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -7549,14 +7509,10 @@
       <c r="L130" s="3" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="inlineStr">
-        <is>
-          <t>MUNIC</t>
-        </is>
-      </c>
+      <c r="A131" s="3" t="inlineStr"/>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>0000-MUNICIPIO</t>
+          <t>MUNIC   -0000-MUNICIPIO</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -7603,14 +7559,10 @@
       <c r="L131" s="3" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>MUNIC</t>
-        </is>
-      </c>
+      <c r="A132" s="3" t="inlineStr"/>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>0000-MUNICIPIO</t>
+          <t>MUNIC   -0000-MUNICIPIO</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -7657,14 +7609,10 @@
       <c r="L132" s="3" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="inlineStr">
-        <is>
-          <t>MUNIC</t>
-        </is>
-      </c>
+      <c r="A133" s="3" t="inlineStr"/>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>0000-MUNICIPIO</t>
+          <t>MUNIC   -0000-MUNICIPIO</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -7711,14 +7659,10 @@
       <c r="L133" s="3" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A134" s="3" t="inlineStr"/>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -7765,14 +7709,10 @@
       <c r="L134" s="3" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A135" s="3" t="inlineStr"/>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -7819,14 +7759,10 @@
       <c r="L135" s="3" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A136" s="3" t="inlineStr"/>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -7873,14 +7809,10 @@
       <c r="L136" s="3" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A137" s="3" t="inlineStr"/>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -7927,14 +7859,10 @@
       <c r="L137" s="3" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A138" s="3" t="inlineStr"/>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -7981,14 +7909,10 @@
       <c r="L138" s="3" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A139" s="3" t="inlineStr"/>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -8035,14 +7959,10 @@
       <c r="L139" s="3" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A140" s="3" t="inlineStr"/>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -8089,14 +8009,10 @@
       <c r="L140" s="3" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A141" s="3" t="inlineStr"/>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -8143,14 +8059,10 @@
       <c r="L141" s="3" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A142" s="3" t="inlineStr"/>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -8197,14 +8109,10 @@
       <c r="L142" s="3" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A143" s="3" t="inlineStr"/>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -8251,14 +8159,10 @@
       <c r="L143" s="3" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A144" s="3" t="inlineStr"/>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -8305,14 +8209,10 @@
       <c r="L144" s="3" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A145" s="3" t="inlineStr"/>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -8359,14 +8259,10 @@
       <c r="L145" s="3" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A146" s="3" t="inlineStr"/>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -8413,14 +8309,10 @@
       <c r="L146" s="3" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A147" s="3" t="inlineStr"/>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -8467,14 +8359,10 @@
       <c r="L147" s="3" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A148" s="3" t="inlineStr"/>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -8521,14 +8409,10 @@
       <c r="L148" s="3" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A149" s="3" t="inlineStr"/>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -8596,7 +8480,7 @@
   <cols>
     <col width="20.4" customWidth="1" min="1" max="1"/>
     <col width="46.8" customWidth="1" min="2" max="2"/>
-    <col width="9.6" customWidth="1" min="3" max="3"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="26.4" customWidth="1" min="4" max="4"/>
     <col width="19.2" customWidth="1" min="5" max="5"/>
     <col width="16.8" customWidth="1" min="6" max="6"/>
@@ -8647,14 +8531,10 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
           <t>000000000002</t>
         </is>
       </c>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
       <c r="F2" s="3" t="inlineStr"/>
     </row>
@@ -8671,14 +8551,10 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
           <t>00000000010</t>
         </is>
       </c>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="n">
         <v>5551.68</v>
       </c>
@@ -8699,14 +8575,10 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
           <t>000000660666</t>
         </is>
       </c>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr"/>
     </row>
@@ -8723,14 +8595,10 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
           <t>003603050001</t>
         </is>
       </c>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="n">
         <v>80000.75999999999</v>
       </c>
@@ -8751,14 +8619,10 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
           <t>007806160001</t>
         </is>
       </c>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="n">
         <v>319.8</v>
       </c>
@@ -8779,14 +8643,10 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
           <t>009726960001</t>
         </is>
       </c>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="n">
         <v>22500</v>
       </c>
@@ -8807,14 +8667,10 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
           <t>009726960003</t>
         </is>
       </c>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="n">
         <v>15300</v>
       </c>
@@ -8835,14 +8691,10 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
           <t>012913870006</t>
         </is>
       </c>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="n">
         <v>15000</v>
       </c>
@@ -8863,14 +8715,10 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
           <t>014093480001</t>
         </is>
       </c>
+      <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="n">
         <v>261653.8</v>
       </c>
@@ -8889,14 +8737,10 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
           <t>014172220001</t>
         </is>
       </c>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="n">
         <v>13310078.56</v>
       </c>
@@ -8917,14 +8761,10 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
           <t>014172220003</t>
         </is>
       </c>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="n">
         <v>-13296578.56</v>
       </c>
@@ -8945,14 +8785,10 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
           <t>014387840001</t>
         </is>
       </c>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr"/>
       <c r="F13" s="4" t="n">
         <v>938.9</v>
@@ -8971,14 +8807,10 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
           <t>015542850001</t>
         </is>
       </c>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="n">
         <v>1700.18</v>
       </c>
@@ -8999,14 +8831,10 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
           <t>016125090001</t>
         </is>
       </c>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="n">
         <v>364666.48</v>
       </c>
@@ -9025,14 +8853,10 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
           <t>030073310001</t>
         </is>
       </c>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="n">
         <v>99.98999999999999</v>
       </c>
@@ -9053,14 +8877,10 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
           <t>030073310008</t>
         </is>
       </c>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="n">
         <v>3194.5</v>
       </c>
@@ -9081,14 +8901,10 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
           <t>030344330001</t>
         </is>
       </c>
+      <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr"/>
       <c r="F18" s="3" t="inlineStr"/>
     </row>
@@ -9105,14 +8921,10 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
           <t>033023370001</t>
         </is>
       </c>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="n">
         <v>-13511.24</v>
       </c>
@@ -9133,14 +8945,10 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
           <t>035980500001</t>
         </is>
       </c>
+      <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="n">
         <v>132.99</v>
       </c>
@@ -9161,14 +8969,10 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
           <t>036827840683</t>
         </is>
       </c>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="n">
         <v>3300</v>
       </c>
@@ -9189,14 +8993,10 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
           <t>040978000001</t>
         </is>
       </c>
+      <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3" t="inlineStr"/>
     </row>
@@ -9213,14 +9013,10 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
           <t>041793840001</t>
         </is>
       </c>
+      <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="n">
         <v>283090.54</v>
       </c>
@@ -9241,14 +9037,10 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
           <t>049153150001</t>
         </is>
       </c>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="n">
         <v>51119.2</v>
       </c>
@@ -9269,14 +9061,10 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
           <t>050515650001</t>
         </is>
       </c>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="n">
         <v>50000</v>
       </c>
@@ -9297,14 +9085,10 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
           <t>055291170009</t>
         </is>
       </c>
+      <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="n">
         <v>5395.6</v>
       </c>
@@ -9325,14 +9109,10 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
           <t>057502270001</t>
         </is>
       </c>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="4" t="n">
         <v>2840</v>
@@ -9351,14 +9131,10 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
           <t>063499160001</t>
         </is>
       </c>
+      <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="n">
         <v>321063.08</v>
       </c>
@@ -9379,14 +9155,10 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
           <t>069427930001</t>
         </is>
       </c>
+      <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="n">
         <v>55395.27</v>
       </c>
@@ -9407,14 +9179,10 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
           <t>069811760001</t>
         </is>
       </c>
+      <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="n">
         <v>659455.84</v>
       </c>
@@ -9435,14 +9203,10 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
           <t>069811800001</t>
         </is>
       </c>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr"/>
     </row>
@@ -9459,14 +9223,10 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
           <t>071757250004</t>
         </is>
       </c>
+      <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="n">
         <v>37995.28</v>
       </c>
@@ -9487,14 +9247,10 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
           <t>071757250010</t>
         </is>
       </c>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="n">
         <v>269722.11</v>
       </c>
@@ -9515,14 +9271,10 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
           <t>073587610239</t>
         </is>
       </c>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="n">
         <v>50987.3</v>
       </c>
@@ -9543,14 +9295,10 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
           <t>077301550001</t>
         </is>
       </c>
+      <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="n">
         <v>37.99</v>
       </c>
@@ -9571,14 +9319,10 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
           <t>080857880001</t>
         </is>
       </c>
+      <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="n">
         <v>3501</v>
       </c>
@@ -9599,14 +9343,10 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
           <t>082191520001</t>
         </is>
       </c>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="n">
         <v>80000</v>
       </c>
@@ -9627,14 +9367,10 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
           <t>083182350001</t>
         </is>
       </c>
+      <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="n">
         <v>19500</v>
       </c>
@@ -9653,14 +9389,10 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
           <t>085841160009</t>
         </is>
       </c>
+      <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="n">
         <v>1150.97</v>
       </c>
@@ -9681,14 +9413,10 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
-        <is>
           <t>086839640002</t>
         </is>
       </c>
+      <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="n">
         <v>6480</v>
       </c>
@@ -9709,14 +9437,10 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
           <t>088298650001</t>
         </is>
       </c>
+      <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="n">
         <v>127.79</v>
       </c>
@@ -9737,14 +9461,10 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
           <t>104267150001</t>
         </is>
       </c>
+      <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="3" t="n">
         <v>1825.25</v>
       </c>
@@ -9763,14 +9483,10 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
           <t>108221430001</t>
         </is>
       </c>
+      <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="n">
         <v>62363</v>
       </c>
@@ -9791,14 +9507,10 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
           <t>117043940001</t>
         </is>
       </c>
+      <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="n">
         <v>49200</v>
       </c>
@@ -9817,14 +9529,10 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
           <t>122801550001</t>
         </is>
       </c>
+      <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="3" t="n">
         <v>77500</v>
       </c>
@@ -9843,14 +9551,10 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
           <t>125381560001</t>
         </is>
       </c>
+      <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="n">
         <v>965438.1</v>
       </c>
@@ -9871,14 +9575,10 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
           <t>129141480001</t>
         </is>
       </c>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="3" t="n">
         <v>240.71</v>
       </c>
@@ -9899,14 +9599,10 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
           <t>129987090001</t>
         </is>
       </c>
+      <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="3" t="n">
         <v>750</v>
       </c>
@@ -9927,14 +9623,10 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
           <t>130998120001</t>
         </is>
       </c>
+      <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr"/>
       <c r="F49" s="4" t="n">
         <v>50080.45</v>
@@ -9953,14 +9645,10 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
           <t>130998120001</t>
         </is>
       </c>
+      <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="4" t="n">
         <v>-50080.45</v>
@@ -9979,14 +9667,10 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
           <t>131316920001</t>
         </is>
       </c>
+      <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="3" t="n">
         <v>-1960.17</v>
       </c>
@@ -10007,14 +9691,10 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
           <t>131845310001</t>
         </is>
       </c>
+      <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="n">
         <v>2700</v>
       </c>
@@ -10033,14 +9713,10 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
           <t>135057210000</t>
         </is>
       </c>
+      <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr"/>
       <c r="F53" s="4" t="n">
         <v>189</v>
@@ -10059,14 +9735,10 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
           <t>143099920001</t>
         </is>
       </c>
+      <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="n">
         <v>953130.27</v>
       </c>
@@ -10087,14 +9759,10 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
           <t>171701500001</t>
         </is>
       </c>
+      <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="n">
         <v>37639.54</v>
       </c>
@@ -10115,14 +9783,10 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
           <t>171949940004</t>
         </is>
       </c>
+      <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="3" t="n">
         <v>-312.2</v>
       </c>
@@ -10143,14 +9807,10 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
           <t>172082570001</t>
         </is>
       </c>
+      <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="3" t="n">
         <v>20604</v>
       </c>
@@ -10171,14 +9831,10 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
           <t>172502750003</t>
         </is>
       </c>
+      <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="n">
         <v>-1595.4</v>
       </c>
@@ -10199,14 +9855,10 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
           <t>174313540001</t>
         </is>
       </c>
+      <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="3" t="n">
         <v>67763.95</v>
       </c>
@@ -10227,14 +9879,10 @@
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
           <t>174714420001</t>
         </is>
       </c>
+      <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="n">
         <v>700000</v>
       </c>
@@ -10255,14 +9903,10 @@
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
           <t>186891250002</t>
         </is>
       </c>
+      <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="3" t="n">
         <v>2668913.31</v>
       </c>
@@ -10283,14 +9927,10 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
           <t>192962690001</t>
         </is>
       </c>
+      <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3" t="inlineStr"/>
     </row>
@@ -10307,14 +9947,10 @@
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
           <t>192972900001</t>
         </is>
       </c>
+      <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr"/>
       <c r="F63" s="3" t="inlineStr"/>
     </row>
@@ -10331,14 +9967,10 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
           <t>193299630001</t>
         </is>
       </c>
+      <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="3" t="n">
         <v>61376</v>
       </c>
@@ -10359,14 +9991,10 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
           <t>197918960001</t>
         </is>
       </c>
+      <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr"/>
       <c r="F65" s="3" t="inlineStr"/>
     </row>
@@ -10383,14 +10011,10 @@
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
           <t>206958820001</t>
         </is>
       </c>
+      <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="3" t="inlineStr"/>
       <c r="F66" s="4" t="n">
         <v>-654.05</v>
@@ -10409,14 +10033,10 @@
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
           <t>211545540001</t>
         </is>
       </c>
+      <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="3" t="n">
         <v>1000000</v>
       </c>
@@ -10437,14 +10057,10 @@
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
           <t>229312990001</t>
         </is>
       </c>
+      <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="3" t="n">
         <v>520000</v>
       </c>
@@ -10465,14 +10081,10 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
           <t>232848760001</t>
         </is>
       </c>
+      <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="3" t="n">
         <v>374.5</v>
       </c>
@@ -10493,14 +10105,10 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
           <t>244985200001</t>
         </is>
       </c>
+      <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="3" t="n">
         <v>783</v>
       </c>
@@ -10521,14 +10129,10 @@
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
           <t>251382500001</t>
         </is>
       </c>
+      <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr"/>
       <c r="F71" s="3" t="inlineStr"/>
     </row>
@@ -10545,14 +10149,10 @@
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
-        <is>
           <t>253721110001</t>
         </is>
       </c>
+      <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="n">
         <v>-112620</v>
       </c>
@@ -10573,14 +10173,10 @@
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
           <t>256146860001</t>
         </is>
       </c>
+      <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="4" t="n">
         <v>-144776.47</v>
@@ -10599,14 +10195,10 @@
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
           <t>263660000001</t>
         </is>
       </c>
+      <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="3" t="n">
         <v>-1279</v>
       </c>
@@ -10627,14 +10219,10 @@
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
           <t>263660000001</t>
         </is>
       </c>
+      <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="3" t="n">
         <v>1279</v>
       </c>
@@ -10655,14 +10243,10 @@
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
-        <is>
           <t>263877130001</t>
         </is>
       </c>
+      <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="3" t="inlineStr"/>
       <c r="F76" s="4" t="n">
         <v>31.53</v>
@@ -10681,14 +10265,10 @@
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
           <t>273623490001</t>
         </is>
       </c>
+      <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="n">
         <v>5997.6</v>
       </c>
@@ -10707,14 +10287,10 @@
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
           <t>274810320001</t>
         </is>
       </c>
+      <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="3" t="n">
         <v>604411.05</v>
       </c>
@@ -10735,14 +10311,10 @@
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
-        <is>
           <t>293023480003</t>
         </is>
       </c>
+      <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="n">
         <v>13699.8</v>
       </c>
@@ -10763,14 +10335,10 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
-        <is>
           <t>309133240001</t>
         </is>
       </c>
+      <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="3" t="n">
         <v>-1281.51</v>
       </c>
@@ -10791,14 +10359,10 @@
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
           <t>309133240001</t>
         </is>
       </c>
+      <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="3" t="n">
         <v>1281.51</v>
       </c>
@@ -10819,14 +10383,10 @@
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
           <t>312280090001</t>
         </is>
       </c>
+      <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="3" t="inlineStr"/>
       <c r="F82" s="4" t="n">
         <v>-5470</v>
@@ -10845,14 +10405,10 @@
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
           <t>327204580001</t>
         </is>
       </c>
+      <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="3" t="inlineStr"/>
       <c r="F83" s="4" t="n">
         <v>-47905.26</v>
@@ -10871,14 +10427,10 @@
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
-        <is>
           <t>331315410001</t>
         </is>
       </c>
+      <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="3" t="n">
         <v>699891.58</v>
       </c>
@@ -10899,14 +10451,10 @@
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
-        <is>
           <t>331625760001</t>
         </is>
       </c>
+      <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="3" t="n">
         <v>337.6</v>
       </c>
@@ -10927,14 +10475,10 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
           <t>333009710001</t>
         </is>
       </c>
+      <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="3" t="n">
         <v>25000</v>
       </c>
@@ -10955,14 +10499,10 @@
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
-        <is>
           <t>333371220211</t>
         </is>
       </c>
+      <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="3" t="n">
         <v>1200210</v>
       </c>
@@ -10983,14 +10523,10 @@
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr">
-        <is>
           <t>335925100001</t>
         </is>
       </c>
+      <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="3" t="n">
         <v>-839238.66</v>
       </c>
@@ -11011,14 +10547,10 @@
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
           <t>335925100007</t>
         </is>
       </c>
+      <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="3" t="n">
         <v>1446574.01</v>
       </c>
@@ -11039,14 +10571,10 @@
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr">
-        <is>
           <t>335925100007</t>
         </is>
       </c>
+      <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="3" t="inlineStr"/>
       <c r="F90" s="4" t="n">
         <v>-28472.65</v>
@@ -11065,14 +10593,10 @@
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
-        <is>
           <t>335925100034</t>
         </is>
       </c>
+      <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="3" t="n">
         <v>1128935.61</v>
       </c>
@@ -11093,14 +10617,10 @@
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
           <t>335925100035</t>
         </is>
       </c>
+      <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="3" t="n">
         <v>1210.22</v>
       </c>
@@ -11121,14 +10641,10 @@
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr">
-        <is>
           <t>335925100044</t>
         </is>
       </c>
+      <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="3" t="n">
         <v>48436.51</v>
       </c>
@@ -11149,14 +10665,10 @@
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
           <t>337434680001</t>
         </is>
       </c>
+      <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="3" t="n">
         <v>33986.4</v>
       </c>
@@ -11175,14 +10687,10 @@
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr">
-        <is>
           <t>343702810001</t>
         </is>
       </c>
+      <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="3" t="n">
         <v>50000</v>
       </c>
@@ -11203,14 +10711,10 @@
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
-        <is>
           <t>346760210001</t>
         </is>
       </c>
+      <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="3" t="inlineStr"/>
       <c r="F96" s="4" t="n">
         <v>6579</v>
@@ -11229,14 +10733,10 @@
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr">
-        <is>
           <t>358234100001</t>
         </is>
       </c>
+      <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="3" t="n">
         <v>725.98</v>
       </c>
@@ -11257,14 +10757,10 @@
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
           <t>377200290003</t>
         </is>
       </c>
+      <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="3" t="n">
         <v>1257.46</v>
       </c>
@@ -11285,14 +10781,10 @@
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
           <t>389492890001</t>
         </is>
       </c>
+      <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="3" t="n">
         <v>1150</v>
       </c>
@@ -11313,14 +10805,10 @@
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D100" s="3" t="inlineStr">
-        <is>
           <t>403391050001</t>
         </is>
       </c>
+      <c r="D100" s="3" t="inlineStr"/>
       <c r="E100" s="3" t="n">
         <v>19168.5</v>
       </c>
@@ -11341,14 +10829,10 @@
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr">
-        <is>
           <t>410674700001</t>
         </is>
       </c>
+      <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="3" t="n">
         <v>13333.33</v>
       </c>
@@ -11367,14 +10851,10 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr">
-        <is>
           <t>418400260008</t>
         </is>
       </c>
+      <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="3" t="n">
         <v>19356</v>
       </c>
@@ -11395,14 +10875,10 @@
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr">
-        <is>
           <t>424715050001</t>
         </is>
       </c>
+      <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="3" t="inlineStr"/>
       <c r="F103" s="4" t="n">
         <v>133485.46</v>
@@ -11421,14 +10897,10 @@
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
           <t>432367430001</t>
         </is>
       </c>
+      <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="3" t="n">
         <v>170.32</v>
       </c>
@@ -11449,14 +10921,10 @@
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
           <t>436264070006</t>
         </is>
       </c>
+      <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="3" t="n">
         <v>39300</v>
       </c>
@@ -11477,14 +10945,10 @@
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
           <t>436264070007</t>
         </is>
       </c>
+      <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="3" t="n">
         <v>114450</v>
       </c>
@@ -11505,14 +10969,10 @@
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
           <t>437168150001</t>
         </is>
       </c>
+      <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="3" t="n">
         <v>455.61</v>
       </c>
@@ -11531,14 +10991,10 @@
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr">
-        <is>
           <t>439482150001</t>
         </is>
       </c>
+      <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr"/>
       <c r="F108" s="4" t="n">
         <v>1524607.36</v>
@@ -11557,14 +11013,10 @@
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
-        <is>
           <t>439723390001</t>
         </is>
       </c>
+      <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="3" t="n">
         <v>196.45</v>
       </c>
@@ -11585,14 +11037,10 @@
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
-        <is>
           <t>470105660001</t>
         </is>
       </c>
+      <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="4" t="n">
         <v>-5770</v>
@@ -11611,14 +11059,10 @@
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
-        <is>
           <t>475125910001</t>
         </is>
       </c>
+      <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="3" t="inlineStr"/>
       <c r="F111" s="4" t="n">
         <v>45640</v>
@@ -11637,14 +11081,10 @@
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
-        <is>
           <t>477108470001</t>
         </is>
       </c>
+      <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="3" t="n">
         <v>155.88</v>
       </c>
@@ -11665,14 +11105,10 @@
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
-        <is>
           <t>477319110001</t>
         </is>
       </c>
+      <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="3" t="inlineStr"/>
       <c r="F113" s="3" t="inlineStr"/>
     </row>
@@ -11689,14 +11125,10 @@
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr">
-        <is>
           <t>479609500001</t>
         </is>
       </c>
+      <c r="D114" s="3" t="inlineStr"/>
       <c r="E114" s="3" t="n">
         <v>22993.96</v>
       </c>
@@ -11717,14 +11149,10 @@
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D115" s="3" t="inlineStr">
-        <is>
           <t>479609500265</t>
         </is>
       </c>
+      <c r="D115" s="3" t="inlineStr"/>
       <c r="E115" s="3" t="n">
         <v>1747.26</v>
       </c>
@@ -11745,14 +11173,10 @@
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D116" s="3" t="inlineStr">
-        <is>
           <t>479609500643</t>
         </is>
       </c>
+      <c r="D116" s="3" t="inlineStr"/>
       <c r="E116" s="3" t="n">
         <v>8146.12</v>
       </c>
@@ -11773,14 +11197,10 @@
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D117" s="3" t="inlineStr">
-        <is>
           <t>479609500945</t>
         </is>
       </c>
+      <c r="D117" s="3" t="inlineStr"/>
       <c r="E117" s="3" t="n">
         <v>-4464.05</v>
       </c>
@@ -11801,14 +11221,10 @@
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D118" s="3" t="inlineStr">
-        <is>
           <t>484370560001</t>
         </is>
       </c>
+      <c r="D118" s="3" t="inlineStr"/>
       <c r="E118" s="3" t="n">
         <v>-4302.9</v>
       </c>
@@ -11829,14 +11245,10 @@
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D119" s="3" t="inlineStr">
-        <is>
           <t>501170490001</t>
         </is>
       </c>
+      <c r="D119" s="3" t="inlineStr"/>
       <c r="E119" s="3" t="n">
         <v>1499433.3</v>
       </c>
@@ -11857,14 +11269,10 @@
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr">
-        <is>
           <t>501626820001</t>
         </is>
       </c>
+      <c r="D120" s="3" t="inlineStr"/>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="4" t="n">
         <v>8323.459999999999</v>
@@ -11883,14 +11291,10 @@
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D121" s="3" t="inlineStr">
-        <is>
           <t>505682260001</t>
         </is>
       </c>
+      <c r="D121" s="3" t="inlineStr"/>
       <c r="E121" s="3" t="n">
         <v>80513</v>
       </c>
@@ -11909,14 +11313,10 @@
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D122" s="3" t="inlineStr">
-        <is>
           <t>511639100001</t>
         </is>
       </c>
+      <c r="D122" s="3" t="inlineStr"/>
       <c r="E122" s="3" t="n">
         <v>2400000</v>
       </c>
@@ -11937,14 +11337,10 @@
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
           <t>549671780001</t>
         </is>
       </c>
+      <c r="D123" s="3" t="inlineStr"/>
       <c r="E123" s="3" t="n">
         <v>4513959</v>
       </c>
@@ -11965,14 +11361,10 @@
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
           <t>563846820001</t>
         </is>
       </c>
+      <c r="D124" s="3" t="inlineStr"/>
       <c r="E124" s="3" t="n">
         <v>-500</v>
       </c>
@@ -11993,14 +11385,10 @@
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D125" s="3" t="inlineStr">
-        <is>
           <t>586263000001</t>
         </is>
       </c>
+      <c r="D125" s="3" t="inlineStr"/>
       <c r="E125" s="3" t="n">
         <v>191495</v>
       </c>
@@ -12021,14 +11409,10 @@
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D126" s="3" t="inlineStr">
-        <is>
           <t>593294760001</t>
         </is>
       </c>
+      <c r="D126" s="3" t="inlineStr"/>
       <c r="E126" s="3" t="inlineStr"/>
       <c r="F126" s="3" t="inlineStr"/>
     </row>
@@ -12045,14 +11429,10 @@
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D127" s="3" t="inlineStr">
-        <is>
           <t>596699020001</t>
         </is>
       </c>
+      <c r="D127" s="3" t="inlineStr"/>
       <c r="E127" s="3" t="n">
         <v>5000</v>
       </c>
@@ -12071,14 +11451,10 @@
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D128" s="3" t="inlineStr">
-        <is>
           <t>648269930001</t>
         </is>
       </c>
+      <c r="D128" s="3" t="inlineStr"/>
       <c r="E128" s="3" t="n">
         <v>474.3</v>
       </c>
@@ -12097,14 +11473,10 @@
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D129" s="3" t="inlineStr">
-        <is>
           <t>723811890010</t>
         </is>
       </c>
+      <c r="D129" s="3" t="inlineStr"/>
       <c r="E129" s="3" t="n">
         <v>53518.32</v>
       </c>
@@ -12123,11 +11495,7 @@
           <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
         </is>
       </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C130" s="3" t="inlineStr"/>
       <c r="D130" s="3" t="inlineStr">
         <is>
           <t>INPS0000</t>
@@ -12151,11 +11519,7 @@
           <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
         </is>
       </c>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C131" s="3" t="inlineStr"/>
       <c r="D131" s="3" t="inlineStr">
         <is>
           <t>MUNIC0000</t>
@@ -12179,11 +11543,7 @@
           <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
         </is>
       </c>
-      <c r="C132" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C132" s="3" t="inlineStr"/>
       <c r="D132" s="3" t="inlineStr">
         <is>
           <t>UNIAO0000</t>
@@ -12207,11 +11567,7 @@
           <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
         </is>
       </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="C133" s="3" t="inlineStr"/>
       <c r="D133" s="3" t="inlineStr">
         <is>
           <t>UNIAO0000</t>
@@ -12244,8 +11600,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="32.4" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="21.6" customWidth="1" min="3" max="3"/>
     <col width="19.2" customWidth="1" min="4" max="4"/>
     <col width="16.8" customWidth="1" min="5" max="5"/>
@@ -12291,14 +11647,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>UNIAO</t>
-        </is>
-      </c>
+      <c r="A2" s="6" t="inlineStr"/>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>0000-UNIAO</t>
+          <t>UNIAO   -0000-UNIAO</t>
         </is>
       </c>
       <c r="C2" s="6" t="n">
@@ -12320,12 +11672,12 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>00212562</t>
+          <t>002125620014</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>0014-WEIR DO BRASIL LTDA</t>
+          <t>WEIR DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C3" s="6" t="n">
@@ -12347,12 +11699,12 @@
     <row r="4">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>14309992</t>
+          <t>143099920001</t>
         </is>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
-          <t>0001-WEG DRIVES E CONTROL</t>
+          <t>WEG DRIVES E CONTROL</t>
         </is>
       </c>
       <c r="C4" s="6" t="n">
@@ -12374,12 +11726,12 @@
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>0007-VALE MINA DE FABRICA</t>
+          <t>VALE MINA DE FABRICA</t>
         </is>
       </c>
       <c r="C5" s="6" t="n">
@@ -12401,12 +11753,12 @@
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100034</t>
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>0034-CVRD MINA FA RI PEIX</t>
+          <t>CVRD MINA FA RI PEIX</t>
         </is>
       </c>
       <c r="C6" s="6" t="n">
@@ -12428,12 +11780,12 @@
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>33131541</t>
+          <t>331315410001</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>0001-COMPANHIA BRASILEIRA</t>
+          <t>COMPANHIA BRASILEIRA</t>
         </is>
       </c>
       <c r="C7" s="6" t="n">
@@ -12455,12 +11807,12 @@
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>06349916</t>
+          <t>063499160001</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>0001-ANDRITZ</t>
+          <t>ANDRITZ</t>
         </is>
       </c>
       <c r="C8" s="6" t="n">
@@ -12482,12 +11834,12 @@
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>07175725</t>
+          <t>071757250010</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>0010-WEG EQUIPAMENTOS</t>
+          <t>WEG EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="C9" s="6" t="n">
@@ -12509,12 +11861,12 @@
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>07876554</t>
+          <t>078765540001</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>0001-CASTELLAR GUIMARAES</t>
+          <t>CASTELLAR GUIMARAES</t>
         </is>
       </c>
       <c r="C10" s="6" t="n">
@@ -12536,14 +11888,10 @@
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
           <t>014172220001</t>
         </is>
       </c>
+      <c r="B11" s="6" t="inlineStr"/>
       <c r="C11" s="6" t="n">
         <v>0</v>
       </c>
@@ -12560,21 +11908,17 @@
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MRS LOGISTICA SA: R$ 13310078.56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
           <t>014172220003</t>
         </is>
       </c>
+      <c r="B12" s="6" t="inlineStr"/>
       <c r="C12" s="6" t="n">
         <v>0</v>
       </c>
@@ -12591,19 +11935,15 @@
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MRS LOGISTICA SA: R$ -13296578.56</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>INPS</t>
-        </is>
-      </c>
+      <c r="A13" s="6" t="inlineStr"/>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>0000-INPS</t>
+          <t>INPS    -0000-INPS</t>
         </is>
       </c>
       <c r="C13" s="6" t="n">
@@ -12625,12 +11965,12 @@
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>07083656</t>
+          <t>070836560007</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>0007-SAND MIN A R TECHNOL</t>
+          <t>SAND MIN A R TECHNOL</t>
         </is>
       </c>
       <c r="C14" s="6" t="n">
@@ -12652,12 +11992,12 @@
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>12538156</t>
+          <t>125381560001</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>0001-MASON EQUIPAMENTOS</t>
+          <t>MASON EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="C15" s="6" t="n">
@@ -12679,12 +12019,12 @@
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>17471442</t>
+          <t>174714420001</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>0001-AGRO INDUSTRIAL BELA</t>
+          <t>AGRO INDUSTRIAL BELA</t>
         </is>
       </c>
       <c r="C16" s="6" t="n">
@@ -12706,12 +12046,12 @@
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>17431354</t>
+          <t>174313540001</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>0001-TAKONO</t>
+          <t>TAKONO</t>
         </is>
       </c>
       <c r="C17" s="6" t="n">
@@ -12733,12 +12073,12 @@
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>06942793</t>
+          <t>069427930001</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>0001-ELETRO PAINEL</t>
+          <t>ELETRO PAINEL</t>
         </is>
       </c>
       <c r="C18" s="6" t="n">
@@ -12760,12 +12100,12 @@
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>72381189</t>
+          <t>723811890010</t>
         </is>
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>0010-DELL COMPUTADORES DO</t>
+          <t>DELL COMPUTADORES DO</t>
         </is>
       </c>
       <c r="C19" s="6" t="n">
@@ -12787,12 +12127,12 @@
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>04915315</t>
+          <t>049153150001</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>0001-VENTANA SERRA BR AGE</t>
+          <t>VENTANA SERRA BR AGE</t>
         </is>
       </c>
       <c r="C20" s="6" t="n">
@@ -12814,12 +12154,12 @@
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100044</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>0044-CVRD MINA DE PICO</t>
+          <t>CVRD MINA DE PICO</t>
         </is>
       </c>
       <c r="C21" s="6" t="n">
@@ -12841,14 +12181,10 @@
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
           <t>549671780001</t>
         </is>
       </c>
+      <c r="B22" s="6" t="inlineStr"/>
       <c r="C22" s="6" t="n">
         <v>0</v>
       </c>
@@ -12865,19 +12201,19 @@
       </c>
       <c r="G22" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: RADH LTDA: R$ 4513959.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>36669629</t>
+          <t>366696290001</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>0001-MINAS COMUNICA</t>
+          <t>MINAS COMUNICA</t>
         </is>
       </c>
       <c r="C23" s="6" t="n">
@@ -12899,12 +12235,12 @@
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>07175725</t>
+          <t>071757250004</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>0004-WEG EQUIPAMENTOS</t>
+          <t>WEG EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="C24" s="6" t="n">
@@ -12926,14 +12262,10 @@
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
           <t>333371220211</t>
         </is>
       </c>
+      <c r="B25" s="6" t="inlineStr"/>
       <c r="C25" s="6" t="n">
         <v>0</v>
       </c>
@@ -12950,19 +12282,19 @@
       </c>
       <c r="G25" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: IPIRANGA PRODUTOS DE PETROLEO S.A: R$ 3703280.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>17170150</t>
+          <t>171701500001</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr">
         <is>
-          <t>0001-VALLOUREC TUBOS DO B</t>
+          <t>VALLOUREC TUBOS DO B</t>
         </is>
       </c>
       <c r="C26" s="6" t="n">
@@ -12984,14 +12316,10 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
           <t>186891250002</t>
         </is>
       </c>
+      <c r="B27" s="6" t="inlineStr"/>
       <c r="C27" s="6" t="n">
         <v>0</v>
       </c>
@@ -13008,21 +12336,17 @@
       </c>
       <c r="G27" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: IMIC - INDUSTRIA MECANICA IRMAOS CORGOZI: R$ 2668913.31</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
-        <is>
           <t>511639100001</t>
         </is>
       </c>
+      <c r="B28" s="6" t="inlineStr"/>
       <c r="C28" s="6" t="n">
         <v>0</v>
       </c>
@@ -13039,21 +12363,17 @@
       </c>
       <c r="G28" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: 5 A HOLDING PARTICIPACOES LTDA: R$ 2400000.0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
-        <is>
           <t>274810320001</t>
         </is>
       </c>
+      <c r="B29" s="6" t="inlineStr"/>
       <c r="C29" s="6" t="n">
         <v>0</v>
       </c>
@@ -13070,21 +12390,17 @@
       </c>
       <c r="G29" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: RAVG NEGOCIOS IMOBILIARIOS LTDA: R$ 1907127.43</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
           <t>439482150001</t>
         </is>
       </c>
+      <c r="B30" s="6" t="inlineStr"/>
       <c r="C30" s="6" t="n">
         <v>0</v>
       </c>
@@ -13101,21 +12417,17 @@
       </c>
       <c r="G30" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: SPECTRIS BR INST ELETRONICOS LTDA: R$ 1524607.36</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="inlineStr">
-        <is>
           <t>501170490001</t>
         </is>
       </c>
+      <c r="B31" s="6" t="inlineStr"/>
       <c r="C31" s="6" t="n">
         <v>0</v>
       </c>
@@ -13132,19 +12444,19 @@
       </c>
       <c r="G31" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: GLOBAL MINNING LTDA: R$ 1426469.61</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>00000000</t>
+          <t>00000000006</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
         <is>
-          <t>006 -ACORDO TRAB</t>
+          <t>ACORDO TRAB</t>
         </is>
       </c>
       <c r="C32" s="6" t="n">
@@ -13166,12 +12478,12 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>43626407</t>
+          <t>436264070007</t>
         </is>
       </c>
       <c r="B33" s="6" t="inlineStr">
         <is>
-          <t>0007-SANDVIK ROCK PROCESS</t>
+          <t>SANDVIK ROCK PROCESS</t>
         </is>
       </c>
       <c r="C33" s="6" t="n">
@@ -13193,14 +12505,10 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
-        <is>
           <t>211545540001</t>
         </is>
       </c>
+      <c r="B34" s="6" t="inlineStr"/>
       <c r="C34" s="6" t="n">
         <v>0</v>
       </c>
@@ -13217,21 +12525,17 @@
       </c>
       <c r="G34" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: TRIBUNAL DE JUSTIÇA DO ESTADO DE MINAS G: R$ 1000000.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="inlineStr">
-        <is>
           <t>125381560001</t>
         </is>
       </c>
+      <c r="B35" s="6" t="inlineStr"/>
       <c r="C35" s="6" t="n">
         <v>0</v>
       </c>
@@ -13248,21 +12552,17 @@
       </c>
       <c r="G35" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MASON EQUIPAMENTOS LTDA: R$ 965438.1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="inlineStr">
-        <is>
           <t>143099920001</t>
         </is>
       </c>
+      <c r="B36" s="6" t="inlineStr"/>
       <c r="C36" s="6" t="n">
         <v>0</v>
       </c>
@@ -13279,21 +12579,17 @@
       </c>
       <c r="G36" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: WEG DRIVES E CONTROLS AUTOMACAO LTDA: R$ 953130.27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="inlineStr">
-        <is>
           <t>335925100001</t>
         </is>
       </c>
+      <c r="B37" s="6" t="inlineStr"/>
       <c r="C37" s="6" t="n">
         <v>0</v>
       </c>
@@ -13310,19 +12606,15 @@
       </c>
       <c r="G37" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: ADIANTAMENTO VALE: R$ -839238.66</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>MUNIC</t>
-        </is>
-      </c>
+      <c r="A38" s="6" t="inlineStr"/>
       <c r="B38" s="6" t="inlineStr">
         <is>
-          <t>0000-MUNICIPIO</t>
+          <t>MUNIC   -0000-MUNICIPIO</t>
         </is>
       </c>
       <c r="C38" s="6" t="n">
@@ -13344,12 +12636,12 @@
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>47960950</t>
+          <t>479609500643</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr">
         <is>
-          <t>0643-MAGAZINE LUIZA S/A</t>
+          <t>MAGAZINE LUIZA S/A</t>
         </is>
       </c>
       <c r="C39" s="6" t="n">
@@ -13369,11 +12661,7 @@
       <c r="G39" s="6" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="A40" s="6" t="inlineStr"/>
       <c r="B40" s="6" t="inlineStr">
         <is>
           <t>INPS0000</t>
@@ -13395,19 +12683,19 @@
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Instituto Nacional de Previdencia Social: R$ -786170.33</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>19258480</t>
+          <t>192584800001</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>0001-GMQ PARTICIPACOES LT</t>
+          <t>GMQ PARTICIPACOES LT</t>
         </is>
       </c>
       <c r="C41" s="6" t="n">
@@ -13429,14 +12717,10 @@
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
-        <is>
           <t>229312990001</t>
         </is>
       </c>
+      <c r="B42" s="6" t="inlineStr"/>
       <c r="C42" s="6" t="n">
         <v>0</v>
       </c>
@@ -13453,21 +12737,17 @@
       </c>
       <c r="G42" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MINERACAO MORRO VELHO LTDA: R$ 780000.0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="inlineStr">
-        <is>
           <t>331315410001</t>
         </is>
       </c>
+      <c r="B43" s="6" t="inlineStr"/>
       <c r="C43" s="6" t="n">
         <v>0</v>
       </c>
@@ -13484,21 +12764,17 @@
       </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: COMPANHIA BRASILEIRA DE METALU MINERACAO: R$ 759353.0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="inlineStr">
-        <is>
           <t>174714420001</t>
         </is>
       </c>
+      <c r="B44" s="6" t="inlineStr"/>
       <c r="C44" s="6" t="n">
         <v>0</v>
       </c>
@@ -13515,21 +12791,17 @@
       </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: AGRO INDUSTRIAL BELA VISTA LTDA: R$ 700000.0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="inlineStr">
-        <is>
           <t>335925100007</t>
         </is>
       </c>
+      <c r="B45" s="6" t="inlineStr"/>
       <c r="C45" s="6" t="n">
         <v>0</v>
       </c>
@@ -13546,19 +12818,19 @@
       </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: VALE SA: R$ 645464.1 | VALE SA: R$ -28472.65</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>00000000</t>
+          <t>00000000010</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
         <is>
-          <t>010 -FORN. DIVERSOS</t>
+          <t>FORN. DIVERSOS</t>
         </is>
       </c>
       <c r="C46" s="6" t="n">
@@ -13580,12 +12852,12 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>07358761</t>
+          <t>073587610239</t>
         </is>
       </c>
       <c r="B47" s="6" t="inlineStr">
         <is>
-          <t>0239-GERDAU ACOS LONGOS</t>
+          <t>GERDAU ACOS LONGOS</t>
         </is>
       </c>
       <c r="C47" s="6" t="n">
@@ -13607,14 +12879,10 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="inlineStr">
-        <is>
           <t>335925100034</t>
         </is>
       </c>
+      <c r="B48" s="6" t="inlineStr"/>
       <c r="C48" s="6" t="n">
         <v>0</v>
       </c>
@@ -13631,19 +12899,19 @@
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: VALE SA: R$ 500754.88</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>36438334</t>
+          <t>364383340001</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
         <is>
-          <t>0001-ALINE PARREIRAS</t>
+          <t>ALINE PARREIRAS</t>
         </is>
       </c>
       <c r="C49" s="6" t="n">
@@ -13665,12 +12933,12 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>14307021</t>
+          <t>143070210001</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
         <is>
-          <t>0001-RSOM PRODUCOES E EVE</t>
+          <t>RSOM PRODUCOES E EVE</t>
         </is>
       </c>
       <c r="C50" s="6" t="n">
@@ -13692,14 +12960,10 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="inlineStr">
-        <is>
           <t>172082570001</t>
         </is>
       </c>
+      <c r="B51" s="6" t="inlineStr"/>
       <c r="C51" s="6" t="n">
         <v>0</v>
       </c>
@@ -13716,19 +12980,19 @@
       </c>
       <c r="G51" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: RAVENA MINERACAO LTDA: R$ 457871.2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>43626407</t>
+          <t>436264070006</t>
         </is>
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>0006-SANDVIK ROCK PROCESS</t>
+          <t>SANDVIK ROCK PROCESS</t>
         </is>
       </c>
       <c r="C52" s="6" t="n">
@@ -13750,14 +13014,10 @@
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="inlineStr">
-        <is>
           <t>063499160001</t>
         </is>
       </c>
+      <c r="B53" s="6" t="inlineStr"/>
       <c r="C53" s="6" t="n">
         <v>0</v>
       </c>
@@ -13774,21 +13034,17 @@
       </c>
       <c r="G53" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: ANDRITZ SEPARATION: R$ 321063.08</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="inlineStr">
-        <is>
           <t>041793840001</t>
         </is>
       </c>
+      <c r="B54" s="6" t="inlineStr"/>
       <c r="C54" s="6" t="n">
         <v>0</v>
       </c>
@@ -13805,21 +13061,17 @@
       </c>
       <c r="G54" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: DRILLGEO GEOLOGIA E SONDAGENS S/A: R$ 283090.54</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="inlineStr">
-        <is>
           <t>071757250010</t>
         </is>
       </c>
+      <c r="B55" s="6" t="inlineStr"/>
       <c r="C55" s="6" t="n">
         <v>0</v>
       </c>
@@ -13836,19 +13088,19 @@
       </c>
       <c r="G55" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: WEG EQUIPAMENTOS ELETRICOS SA: R$ 269722.11</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>00972696</t>
+          <t>009726960001</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr">
         <is>
-          <t>0001-TRANSPORTE GENEROSO</t>
+          <t>TRANSPORTE GENEROSO</t>
         </is>
       </c>
       <c r="C56" s="6" t="n">
@@ -13870,12 +13122,12 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>49592808</t>
+          <t>495928080001</t>
         </is>
       </c>
       <c r="B57" s="6" t="inlineStr">
         <is>
-          <t>0001-REALCE CONSTRUCAO</t>
+          <t>REALCE CONSTRUCAO</t>
         </is>
       </c>
       <c r="C57" s="6" t="n">
@@ -13895,11 +13147,7 @@
       <c r="G57" s="6" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="A58" s="6" t="inlineStr"/>
       <c r="B58" s="6" t="inlineStr">
         <is>
           <t>UNIAO0000</t>
@@ -13921,19 +13169,19 @@
       </c>
       <c r="G58" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: UNIAO: R$ -198011.05 | UNIAO: R$ 250.0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="inlineStr">
         <is>
-          <t>40339105</t>
+          <t>403391050001</t>
         </is>
       </c>
       <c r="B59" s="6" t="inlineStr">
         <is>
-          <t>0001-G P S GERENCIA PRO S</t>
+          <t>G P S GERENCIA PRO S</t>
         </is>
       </c>
       <c r="C59" s="6" t="n">
@@ -13955,14 +13203,10 @@
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="inlineStr">
-        <is>
           <t>586263000001</t>
         </is>
       </c>
+      <c r="B60" s="6" t="inlineStr"/>
       <c r="C60" s="6" t="n">
         <v>0</v>
       </c>
@@ -13979,19 +13223,19 @@
       </c>
       <c r="G60" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: DAIRIX EQUIPAMENTOS ANALITICOS LTDA: R$ 191495.0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>47960950</t>
+          <t>479609500265</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>0265-MAGAZINE LUIZA S/A</t>
+          <t>MAGAZINE LUIZA S/A</t>
         </is>
       </c>
       <c r="C61" s="6" t="n">
@@ -14013,12 +13257,12 @@
     <row r="62">
       <c r="A62" s="6" t="inlineStr">
         <is>
-          <t>00972696</t>
+          <t>009726960003</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr">
         <is>
-          <t>0003-TRANSPORTE GENEROSO</t>
+          <t>TRANSPORTE GENEROSO</t>
         </is>
       </c>
       <c r="C62" s="6" t="n">
@@ -14040,12 +13284,12 @@
     <row r="63">
       <c r="A63" s="6" t="inlineStr">
         <is>
-          <t>01291387</t>
+          <t>012913870006</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>0006-GRAND POINT</t>
+          <t>GRAND POINT</t>
         </is>
       </c>
       <c r="C63" s="6" t="n">
@@ -14067,14 +13311,10 @@
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B64" s="6" t="inlineStr">
-        <is>
           <t>256146860001</t>
         </is>
       </c>
+      <c r="B64" s="6" t="inlineStr"/>
       <c r="C64" s="6" t="n">
         <v>0</v>
       </c>
@@ -14091,19 +13331,19 @@
       </c>
       <c r="G64" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: ENGENHO TREINAMENTO E INFORMACAO EMPRESA: R$ -144776.47</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="inlineStr">
         <is>
-          <t>29302348</t>
+          <t>293023480003</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>0003-GURGELMIX MAQUINAS E</t>
+          <t>GURGELMIX MAQUINAS E</t>
         </is>
       </c>
       <c r="C65" s="6" t="n">
@@ -14125,12 +13365,12 @@
     <row r="66">
       <c r="A66" s="6" t="inlineStr">
         <is>
-          <t>01417222</t>
+          <t>014172220001</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
         <is>
-          <t>0001-EST UNIFICADO</t>
+          <t>EST UNIFICADO</t>
         </is>
       </c>
       <c r="C66" s="6" t="n">
@@ -14152,14 +13392,10 @@
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B67" s="6" t="inlineStr">
-        <is>
           <t>424715050001</t>
         </is>
       </c>
+      <c r="B67" s="6" t="inlineStr"/>
       <c r="C67" s="6" t="n">
         <v>0</v>
       </c>
@@ -14176,19 +13412,19 @@
       </c>
       <c r="G67" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: LIDERANCA MINERACAO E LOCACAO DE MAQUINA: R$ 133485.46</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
-          <t>11972633</t>
+          <t>119726330002</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr">
         <is>
-          <t>0002-LANTEX DO BRASIL IND</t>
+          <t>LANTEX DO BRASIL IND</t>
         </is>
       </c>
       <c r="C68" s="6" t="n">
@@ -14210,12 +13446,12 @@
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>37720029</t>
+          <t>377200290003</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>0003-ROMA FRANCE</t>
+          <t>ROMA FRANCE</t>
         </is>
       </c>
       <c r="C69" s="6" t="n">
@@ -14237,14 +13473,10 @@
     <row r="70">
       <c r="A70" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B70" s="6" t="inlineStr">
-        <is>
           <t>436264070007</t>
         </is>
       </c>
+      <c r="B70" s="6" t="inlineStr"/>
       <c r="C70" s="6" t="n">
         <v>0</v>
       </c>
@@ -14261,21 +13493,17 @@
       </c>
       <c r="G70" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: SANDVIK ROCK PROCESSING BRASIL LTDA: R$ 114450.0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B71" s="6" t="inlineStr">
-        <is>
           <t>253721110001</t>
         </is>
       </c>
+      <c r="B71" s="6" t="inlineStr"/>
       <c r="C71" s="6" t="n">
         <v>0</v>
       </c>
@@ -14292,19 +13520,15 @@
       </c>
       <c r="G71" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: 5G PARTICIPACOES LTDA: R$ -112620.0</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="inlineStr">
-        <is>
-          <t>ESTADO</t>
-        </is>
-      </c>
+      <c r="A72" s="6" t="inlineStr"/>
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>00  -ESTADO</t>
+          <t>ESTADO  -00  -ESTADO</t>
         </is>
       </c>
       <c r="C72" s="6" t="n">
@@ -14326,12 +13550,12 @@
     <row r="73">
       <c r="A73" s="6" t="inlineStr">
         <is>
-          <t>01554285</t>
+          <t>015542850001</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
         <is>
-          <t>0001-CERTISIGN</t>
+          <t>CERTISIGN</t>
         </is>
       </c>
       <c r="C73" s="6" t="n">
@@ -14353,12 +13577,12 @@
     <row r="74">
       <c r="A74" s="6" t="inlineStr">
         <is>
-          <t>90999999</t>
+          <t>909999990999</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
         <is>
-          <t>0999-FOLHA SALARIO</t>
+          <t>FOLHA SALARIO</t>
         </is>
       </c>
       <c r="C74" s="6" t="n">
@@ -14380,12 +13604,12 @@
     <row r="75">
       <c r="A75" s="6" t="inlineStr">
         <is>
-          <t>34878111</t>
+          <t>348781110001</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
         <is>
-          <t>0001-MAPA LOCACOES DE CON</t>
+          <t>MAPA LOCACOES DE CON</t>
         </is>
       </c>
       <c r="C75" s="6" t="n">
@@ -14407,14 +13631,10 @@
     <row r="76">
       <c r="A76" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B76" s="6" t="inlineStr">
-        <is>
           <t>069811760001</t>
         </is>
       </c>
+      <c r="B76" s="6" t="inlineStr"/>
       <c r="C76" s="6" t="n">
         <v>0</v>
       </c>
@@ -14431,21 +13651,17 @@
       </c>
       <c r="G76" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: CEMIG GERACAO E TRANSMISSAO SA: R$ 91223.04</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B77" s="6" t="inlineStr">
-        <is>
           <t>082191520001</t>
         </is>
       </c>
+      <c r="B77" s="6" t="inlineStr"/>
       <c r="C77" s="6" t="n">
         <v>0</v>
       </c>
@@ -14462,19 +13678,19 @@
       </c>
       <c r="G77" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: DIRETORIO ACADEMICO CAPITAO EUCLIDES ROD: R$ 80000.0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="inlineStr">
         <is>
-          <t>20855271</t>
+          <t>208552710001</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>0001-GRACIELLE CARRIERI D</t>
+          <t>GRACIELLE CARRIERI D</t>
         </is>
       </c>
       <c r="C78" s="6" t="n">
@@ -14496,12 +13712,12 @@
     <row r="79">
       <c r="A79" s="6" t="inlineStr">
         <is>
-          <t>25662511</t>
+          <t>256625110001</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>0001-JUNIOR FESTA</t>
+          <t>JUNIOR FESTA</t>
         </is>
       </c>
       <c r="C79" s="6" t="n">
@@ -14523,12 +13739,12 @@
     <row r="80">
       <c r="A80" s="6" t="inlineStr">
         <is>
-          <t>58488046</t>
+          <t>584880460001</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
         <is>
-          <t>0001-MARIA CLARA DE MELO</t>
+          <t>MARIA CLARA DE MELO</t>
         </is>
       </c>
       <c r="C80" s="6" t="n">
@@ -14550,14 +13766,10 @@
     <row r="81">
       <c r="A81" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B81" s="6" t="inlineStr">
-        <is>
           <t>174313540001</t>
         </is>
       </c>
+      <c r="B81" s="6" t="inlineStr"/>
       <c r="C81" s="6" t="n">
         <v>0</v>
       </c>
@@ -14574,19 +13786,19 @@
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: FERRO E ACO TAKONO LTDA: R$ 67763.95</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6" t="inlineStr">
         <is>
-          <t>21265392</t>
+          <t>212653920001</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
         <is>
-          <t>0001-SNC ESTRUTURAS</t>
+          <t>SNC ESTRUTURAS</t>
         </is>
       </c>
       <c r="C82" s="6" t="n">
@@ -14608,12 +13820,12 @@
     <row r="83">
       <c r="A83" s="6" t="inlineStr">
         <is>
-          <t>20325542</t>
+          <t>203255420001</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>0001-ARCO IRIS</t>
+          <t>ARCO IRIS</t>
         </is>
       </c>
       <c r="C83" s="6" t="n">
@@ -14635,12 +13847,12 @@
     <row r="84">
       <c r="A84" s="6" t="inlineStr">
         <is>
-          <t>31949709</t>
+          <t>319497090001</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
         <is>
-          <t>0001-FONSECA &amp; CIA MAGAZI</t>
+          <t>FONSECA &amp; CIA MAGAZI</t>
         </is>
       </c>
       <c r="C84" s="6" t="n">
@@ -14662,12 +13874,12 @@
     <row r="85">
       <c r="A85" s="6" t="inlineStr">
         <is>
-          <t>21513114</t>
+          <t>215131140001</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>0001-LIBERDADE, SOCIEDADE</t>
+          <t>LIBERDADE, SOCIEDADE</t>
         </is>
       </c>
       <c r="C85" s="6" t="n">
@@ -14689,14 +13901,10 @@
     <row r="86">
       <c r="A86" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B86" s="6" t="inlineStr">
-        <is>
           <t>193299630001</t>
         </is>
       </c>
+      <c r="B86" s="6" t="inlineStr"/>
       <c r="C86" s="6" t="n">
         <v>0</v>
       </c>
@@ -14713,19 +13921,19 @@
       </c>
       <c r="G86" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MINAS FROTA LOCACAO DE VEICULOS LTDA: R$ 62080.0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100001</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>0001-VALE</t>
+          <t>VALE</t>
         </is>
       </c>
       <c r="C87" s="6" t="n">
@@ -14747,12 +13955,12 @@
     <row r="88">
       <c r="A88" s="6" t="inlineStr">
         <is>
-          <t>13754337</t>
+          <t>137543370002</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
         <is>
-          <t>0002-PLANO PRODUTOS PROMO</t>
+          <t>PLANO PRODUTOS PROMO</t>
         </is>
       </c>
       <c r="C88" s="6" t="n">
@@ -14774,12 +13982,12 @@
     <row r="89">
       <c r="A89" s="6" t="inlineStr">
         <is>
-          <t>09279052</t>
+          <t>092790520001</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>0001-LEBBE COMUNICACAO</t>
+          <t>LEBBE COMUNICACAO</t>
         </is>
       </c>
       <c r="C89" s="6" t="n">
@@ -14801,14 +14009,10 @@
     <row r="90">
       <c r="A90" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B90" s="6" t="inlineStr">
-        <is>
           <t>069427930001</t>
         </is>
       </c>
+      <c r="B90" s="6" t="inlineStr"/>
       <c r="C90" s="6" t="n">
         <v>0</v>
       </c>
@@ -14825,21 +14029,17 @@
       </c>
       <c r="G90" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: ELETRO PAINEL E MONTAGEM EIRELI: R$ 55395.27</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B91" s="6" t="inlineStr">
-        <is>
           <t>003603050001</t>
         </is>
       </c>
+      <c r="B91" s="6" t="inlineStr"/>
       <c r="C91" s="6" t="n">
         <v>0</v>
       </c>
@@ -14856,19 +14056,19 @@
       </c>
       <c r="G91" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: CAIXA ECONOMICA FEDERAL: R$ 53733.84</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6" t="inlineStr">
         <is>
-          <t>43162504</t>
+          <t>431625040001</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr">
         <is>
-          <t>0001-MIL CORES GRAFICA DI</t>
+          <t>MIL CORES GRAFICA DI</t>
         </is>
       </c>
       <c r="C92" s="6" t="n">
@@ -14890,14 +14090,10 @@
     <row r="93">
       <c r="A93" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B93" s="6" t="inlineStr">
-        <is>
           <t>049153150001</t>
         </is>
       </c>
+      <c r="B93" s="6" t="inlineStr"/>
       <c r="C93" s="6" t="n">
         <v>0</v>
       </c>
@@ -14914,21 +14110,17 @@
       </c>
       <c r="G93" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: VENTANA SERRA BR AGENCIAMENTO CARGAS LT: R$ 51119.2</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B94" s="6" t="inlineStr">
-        <is>
           <t>073587610239</t>
         </is>
       </c>
+      <c r="B94" s="6" t="inlineStr"/>
       <c r="C94" s="6" t="n">
         <v>0</v>
       </c>
@@ -14945,21 +14137,17 @@
       </c>
       <c r="G94" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: GERDAU ACOS LONGOS SA: R$ 50987.3</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B95" s="6" t="inlineStr">
-        <is>
           <t>343702810001</t>
         </is>
       </c>
+      <c r="B95" s="6" t="inlineStr"/>
       <c r="C95" s="6" t="n">
         <v>0</v>
       </c>
@@ -14976,21 +14164,17 @@
       </c>
       <c r="G95" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: HV EMPREENDIMENTOS E PARTICIPACOES LTDA: R$ 50000.0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B96" s="6" t="inlineStr">
-        <is>
           <t>335925100044</t>
         </is>
       </c>
+      <c r="B96" s="6" t="inlineStr"/>
       <c r="C96" s="6" t="n">
         <v>0</v>
       </c>
@@ -15007,19 +14191,19 @@
       </c>
       <c r="G96" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: VALE SA: R$ 48436.51</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="inlineStr">
         <is>
-          <t>30457205</t>
+          <t>304572050001</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr">
         <is>
-          <t>0001-FEEDZ TECNOLOGIA S/A</t>
+          <t>FEEDZ TECNOLOGIA S/A</t>
         </is>
       </c>
       <c r="C97" s="6" t="n">
@@ -15041,14 +14225,10 @@
     <row r="98">
       <c r="A98" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B98" s="6" t="inlineStr">
-        <is>
           <t>327204580001</t>
         </is>
       </c>
+      <c r="B98" s="6" t="inlineStr"/>
       <c r="C98" s="6" t="n">
         <v>0</v>
       </c>
@@ -15065,19 +14245,19 @@
       </c>
       <c r="G98" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MULTOTEC BRASIL PROCESSOS MINERAIS: R$ -47905.26</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="inlineStr">
         <is>
-          <t>33592510</t>
+          <t>335925100035</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr">
         <is>
-          <t>0035-CVRD MINA DE MUTUCA</t>
+          <t>CVRD MINA DE MUTUCA</t>
         </is>
       </c>
       <c r="C99" s="6" t="n">
@@ -15099,14 +14279,10 @@
     <row r="100">
       <c r="A100" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B100" s="6" t="inlineStr">
-        <is>
           <t>723811890010</t>
         </is>
       </c>
+      <c r="B100" s="6" t="inlineStr"/>
       <c r="C100" s="6" t="n">
         <v>0</v>
       </c>
@@ -15123,21 +14299,17 @@
       </c>
       <c r="G100" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: DELL COMPUTADORES DO BRASIL LTDA: R$ 46769.37</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B101" s="6" t="inlineStr">
-        <is>
           <t>475125910001</t>
         </is>
       </c>
+      <c r="B101" s="6" t="inlineStr"/>
       <c r="C101" s="6" t="n">
         <v>0</v>
       </c>
@@ -15154,21 +14326,17 @@
       </c>
       <c r="G101" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: UNIGLOBE PRO TRAVEL LTDA: R$ 45640.0</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B102" s="6" t="inlineStr">
-        <is>
           <t>436264070006</t>
         </is>
       </c>
+      <c r="B102" s="6" t="inlineStr"/>
       <c r="C102" s="6" t="n">
         <v>0</v>
       </c>
@@ -15185,19 +14353,19 @@
       </c>
       <c r="G102" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: SCHENCK PROCESS EQUIP INDUSTRIAIS LTDA: R$ 39300.0</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="inlineStr">
         <is>
-          <t>41147872</t>
+          <t>411478720001</t>
         </is>
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>0001-CL PREMOLDADOS</t>
+          <t>CL PREMOLDADOS</t>
         </is>
       </c>
       <c r="C103" s="6" t="n">
@@ -15219,14 +14387,10 @@
     <row r="104">
       <c r="A104" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B104" s="6" t="inlineStr">
-        <is>
           <t>071757250004</t>
         </is>
       </c>
+      <c r="B104" s="6" t="inlineStr"/>
       <c r="C104" s="6" t="n">
         <v>0</v>
       </c>
@@ -15243,21 +14407,17 @@
       </c>
       <c r="G104" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: WEG EQUIPAMENTOS ELETRICOS SA: R$ 37995.28</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B105" s="6" t="inlineStr">
-        <is>
           <t>171701500001</t>
         </is>
       </c>
+      <c r="B105" s="6" t="inlineStr"/>
       <c r="C105" s="6" t="n">
         <v>0</v>
       </c>
@@ -15274,19 +14434,19 @@
       </c>
       <c r="G105" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: VALLOUREC TUBOS DO BRASIL LTDA: R$ 37639.54</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6" t="inlineStr">
         <is>
-          <t>08085788</t>
+          <t>080857880001</t>
         </is>
       </c>
       <c r="B106" s="6" t="inlineStr">
         <is>
-          <t>0001-DS DIAGNOSTICA</t>
+          <t>DS DIAGNOSTICA</t>
         </is>
       </c>
       <c r="C106" s="6" t="n">
@@ -15308,12 +14468,12 @@
     <row r="107">
       <c r="A107" s="6" t="inlineStr">
         <is>
-          <t>51948344</t>
+          <t>519483440001</t>
         </is>
       </c>
       <c r="B107" s="6" t="inlineStr">
         <is>
-          <t>0001-IDEAL SERVICOS</t>
+          <t>IDEAL SERVICOS</t>
         </is>
       </c>
       <c r="C107" s="6" t="n">
@@ -15335,12 +14495,12 @@
     <row r="108">
       <c r="A108" s="6" t="inlineStr">
         <is>
-          <t>38460248</t>
+          <t>384602480001</t>
         </is>
       </c>
       <c r="B108" s="6" t="inlineStr">
         <is>
-          <t>0001-RESULTADO ENGENHARIA</t>
+          <t>RESULTADO ENGENHARIA</t>
         </is>
       </c>
       <c r="C108" s="6" t="n">
@@ -15362,12 +14522,12 @@
     <row r="109">
       <c r="A109" s="6" t="inlineStr">
         <is>
-          <t>10426715</t>
+          <t>104267150001</t>
         </is>
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>0001-CONSORCIO OTIMO</t>
+          <t>CONSORCIO OTIMO</t>
         </is>
       </c>
       <c r="C109" s="6" t="n">
@@ -15389,12 +14549,12 @@
     <row r="110">
       <c r="A110" s="6" t="inlineStr">
         <is>
-          <t>35521164</t>
+          <t>355211640001</t>
         </is>
       </c>
       <c r="B110" s="6" t="inlineStr">
         <is>
-          <t>0001-AGATHA PAMELA</t>
+          <t>AGATHA PAMELA</t>
         </is>
       </c>
       <c r="C110" s="6" t="n">
@@ -15416,12 +14576,12 @@
     <row r="111">
       <c r="A111" s="6" t="inlineStr">
         <is>
-          <t>65177214</t>
+          <t>651772140001</t>
         </is>
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>0001-PLEIADES DESENVOLVIM</t>
+          <t>PLEIADES DESENVOLVIM</t>
         </is>
       </c>
       <c r="C111" s="6" t="n">
@@ -15443,14 +14603,10 @@
     <row r="112">
       <c r="A112" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B112" s="6" t="inlineStr">
-        <is>
           <t>479609500001</t>
         </is>
       </c>
+      <c r="B112" s="6" t="inlineStr"/>
       <c r="C112" s="6" t="n">
         <v>0</v>
       </c>
@@ -15467,19 +14623,19 @@
       </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MAGAZINE LUIZA S/A: R$ 26236.38</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="inlineStr">
         <is>
-          <t>07327529</t>
+          <t>073275290001</t>
         </is>
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>0001-TECSOL</t>
+          <t>TECSOL</t>
         </is>
       </c>
       <c r="C113" s="6" t="n">
@@ -15501,14 +14657,10 @@
     <row r="114">
       <c r="A114" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B114" s="6" t="inlineStr">
-        <is>
           <t>333009710001</t>
         </is>
       </c>
+      <c r="B114" s="6" t="inlineStr"/>
       <c r="C114" s="6" t="n">
         <v>0</v>
       </c>
@@ -15525,21 +14677,17 @@
       </c>
       <c r="G114" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: EMPRESA DE MINERACAO ESPERANCA S A: R$ 25000.0</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B115" s="6" t="inlineStr">
-        <is>
           <t>479609500945</t>
         </is>
       </c>
+      <c r="B115" s="6" t="inlineStr"/>
       <c r="C115" s="6" t="n">
         <v>0</v>
       </c>
@@ -15556,21 +14704,17 @@
       </c>
       <c r="G115" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MAGAZINE LUIZA S/A: R$ -22993.96</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B116" s="6" t="inlineStr">
-        <is>
           <t>009726960001</t>
         </is>
       </c>
+      <c r="B116" s="6" t="inlineStr"/>
       <c r="C116" s="6" t="n">
         <v>0</v>
       </c>
@@ -15587,21 +14731,17 @@
       </c>
       <c r="G116" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: V M RAMOS E CIA LTDA: R$ 22500.0</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B117" s="6" t="inlineStr">
-        <is>
           <t>418400260008</t>
         </is>
       </c>
+      <c r="B117" s="6" t="inlineStr"/>
       <c r="C117" s="6" t="n">
         <v>0</v>
       </c>
@@ -15618,21 +14758,17 @@
       </c>
       <c r="G117" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: TOOL BOX LTDA: R$ 19356.0</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B118" s="6" t="inlineStr">
-        <is>
           <t>403391050001</t>
         </is>
       </c>
+      <c r="B118" s="6" t="inlineStr"/>
       <c r="C118" s="6" t="n">
         <v>0</v>
       </c>
@@ -15649,21 +14785,17 @@
       </c>
       <c r="G118" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: JR PRESTACAO SERV CONSTRUCOES EIRELI: R$ 19168.5</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B119" s="6" t="inlineStr">
-        <is>
           <t>009726960003</t>
         </is>
       </c>
+      <c r="B119" s="6" t="inlineStr"/>
       <c r="C119" s="6" t="n">
         <v>0</v>
       </c>
@@ -15680,21 +14812,17 @@
       </c>
       <c r="G119" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: V M RAMOS E CIA LTDA: R$ 15300.0</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B120" s="6" t="inlineStr">
-        <is>
           <t>012913870006</t>
         </is>
       </c>
+      <c r="B120" s="6" t="inlineStr"/>
       <c r="C120" s="6" t="n">
         <v>0</v>
       </c>
@@ -15711,19 +14839,19 @@
       </c>
       <c r="G120" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: GRAND POINT COMERCIO DE VEICULOS LTDA: R$ 15000.0</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6" t="inlineStr">
         <is>
-          <t>41711010</t>
+          <t>417110100001</t>
         </is>
       </c>
       <c r="B121" s="6" t="inlineStr">
         <is>
-          <t>0001-DENISE BLEME</t>
+          <t>DENISE BLEME</t>
         </is>
       </c>
       <c r="C121" s="6" t="n">
@@ -15745,14 +14873,10 @@
     <row r="122">
       <c r="A122" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B122" s="6" t="inlineStr">
-        <is>
           <t>293023480003</t>
         </is>
       </c>
+      <c r="B122" s="6" t="inlineStr"/>
       <c r="C122" s="6" t="n">
         <v>0</v>
       </c>
@@ -15769,21 +14893,17 @@
       </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: GURGELMIX MAQUINAS E FERRAMENTAS SA: R$ 13699.8</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B123" s="6" t="inlineStr">
-        <is>
           <t>033023370001</t>
         </is>
       </c>
+      <c r="B123" s="6" t="inlineStr"/>
       <c r="C123" s="6" t="n">
         <v>0</v>
       </c>
@@ -15800,19 +14920,19 @@
       </c>
       <c r="G123" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: PROTECTOR FIRE COMERCIO E SERVICOS CONTR: R$ -13511.24</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="inlineStr">
         <is>
-          <t>24498520</t>
+          <t>244985200001</t>
         </is>
       </c>
       <c r="B124" s="6" t="inlineStr">
         <is>
-          <t>0001-ROSA CLARO ARTIGOS P</t>
+          <t>ROSA CLARO ARTIGOS P</t>
         </is>
       </c>
       <c r="C124" s="6" t="n">
@@ -15832,11 +14952,7 @@
       <c r="G124" s="6" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="A125" s="6" t="inlineStr"/>
       <c r="B125" s="6" t="inlineStr">
         <is>
           <t>MUNIC0000</t>
@@ -15858,21 +14974,17 @@
       </c>
       <c r="G125" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MUNICIPIO: R$ 9445.01</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B126" s="6" t="inlineStr">
-        <is>
           <t>501626820001</t>
         </is>
       </c>
+      <c r="B126" s="6" t="inlineStr"/>
       <c r="C126" s="6" t="n">
         <v>0</v>
       </c>
@@ -15889,21 +15001,17 @@
       </c>
       <c r="G126" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: AABC ORGANIZACAO DE EVENTOS LTDA: R$ 8323.46</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B127" s="6" t="inlineStr">
-        <is>
           <t>479609500643</t>
         </is>
       </c>
+      <c r="B127" s="6" t="inlineStr"/>
       <c r="C127" s="6" t="n">
         <v>0</v>
       </c>
@@ -15920,19 +15028,19 @@
       </c>
       <c r="G127" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MAGAZINE LUIZA S/A: R$ 8146.12</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="inlineStr">
         <is>
-          <t>07943881</t>
+          <t>079438810001</t>
         </is>
       </c>
       <c r="B128" s="6" t="inlineStr">
         <is>
-          <t>0001-GRAFICA CENTRAL</t>
+          <t>GRAFICA CENTRAL</t>
         </is>
       </c>
       <c r="C128" s="6" t="n">
@@ -15954,12 +15062,12 @@
     <row r="129">
       <c r="A129" s="6" t="inlineStr">
         <is>
-          <t>07649995</t>
+          <t>076499950001</t>
         </is>
       </c>
       <c r="B129" s="6" t="inlineStr">
         <is>
-          <t>0001-BE ME CAR AMBULANCIA</t>
+          <t>BE ME CAR AMBULANCIA</t>
         </is>
       </c>
       <c r="C129" s="6" t="n">
@@ -15981,12 +15089,12 @@
     <row r="130">
       <c r="A130" s="6" t="inlineStr">
         <is>
-          <t>12998709</t>
+          <t>129987090001</t>
         </is>
       </c>
       <c r="B130" s="6" t="inlineStr">
         <is>
-          <t>0001-PC BELO HORIZONTE</t>
+          <t>PC BELO HORIZONTE</t>
         </is>
       </c>
       <c r="C130" s="6" t="n">
@@ -16008,12 +15116,12 @@
     <row r="131">
       <c r="A131" s="6" t="inlineStr">
         <is>
-          <t>26122684</t>
+          <t>261226840001</t>
         </is>
       </c>
       <c r="B131" s="6" t="inlineStr">
         <is>
-          <t>0001-VIACAO GW</t>
+          <t>VIACAO GW</t>
         </is>
       </c>
       <c r="C131" s="6" t="n">
@@ -16035,14 +15143,10 @@
     <row r="132">
       <c r="A132" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B132" s="6" t="inlineStr">
-        <is>
           <t>346760210001</t>
         </is>
       </c>
+      <c r="B132" s="6" t="inlineStr"/>
       <c r="C132" s="6" t="n">
         <v>0</v>
       </c>
@@ -16059,21 +15163,17 @@
       </c>
       <c r="G132" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: DIEGO LUIZ MADEIRA DOS SANTOS: R$ 6579.0</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B133" s="6" t="inlineStr">
-        <is>
           <t>086839640002</t>
         </is>
       </c>
+      <c r="B133" s="6" t="inlineStr"/>
       <c r="C133" s="6" t="n">
         <v>0</v>
       </c>
@@ -16090,21 +15190,17 @@
       </c>
       <c r="G133" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: UNIAO BOSCATTI PART ADMINISTRACAO SA: R$ 6480.0</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B134" s="6" t="inlineStr">
-        <is>
           <t>470105660001</t>
         </is>
       </c>
+      <c r="B134" s="6" t="inlineStr"/>
       <c r="C134" s="6" t="n">
         <v>0</v>
       </c>
@@ -16121,21 +15217,17 @@
       </c>
       <c r="G134" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: TECNAL INDUSTRIA, COMERCIO, IMPORTACAO: R$ -5770.0</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B135" s="6" t="inlineStr">
-        <is>
           <t>00000000010</t>
         </is>
       </c>
+      <c r="B135" s="6" t="inlineStr"/>
       <c r="C135" s="6" t="n">
         <v>0</v>
       </c>
@@ -16152,21 +15244,17 @@
       </c>
       <c r="G135" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: FORNECEDORES DIVERSOS: R$ 5551.68</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B136" s="6" t="inlineStr">
-        <is>
           <t>312280090001</t>
         </is>
       </c>
+      <c r="B136" s="6" t="inlineStr"/>
       <c r="C136" s="6" t="n">
         <v>0</v>
       </c>
@@ -16183,21 +15271,17 @@
       </c>
       <c r="G136" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: DEL REY RUBBER BORRACHA E POLIURETANO LT: R$ -5470.0</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B137" s="6" t="inlineStr">
-        <is>
           <t>055291170009</t>
         </is>
       </c>
+      <c r="B137" s="6" t="inlineStr"/>
       <c r="C137" s="6" t="n">
         <v>0</v>
       </c>
@@ -16214,19 +15298,19 @@
       </c>
       <c r="G137" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: LB COMERCIO DE UTILIDADES DOMESTICAS: R$ 5395.6</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="inlineStr">
         <is>
-          <t>20590353</t>
+          <t>205903530001</t>
         </is>
       </c>
       <c r="B138" s="6" t="inlineStr">
         <is>
-          <t>0001-CENTRAL DOS PARA BRI</t>
+          <t>CENTRAL DOS PARA BRI</t>
         </is>
       </c>
       <c r="C138" s="6" t="n">
@@ -16248,14 +15332,10 @@
     <row r="139">
       <c r="A139" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B139" s="6" t="inlineStr">
-        <is>
           <t>484370560001</t>
         </is>
       </c>
+      <c r="B139" s="6" t="inlineStr"/>
       <c r="C139" s="6" t="n">
         <v>0</v>
       </c>
@@ -16272,21 +15352,17 @@
       </c>
       <c r="G139" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: FLEXBBOR BORRACHA POLIURETANO LTDA: R$ -4302.9</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B140" s="6" t="inlineStr">
-        <is>
           <t>108221430001</t>
         </is>
       </c>
+      <c r="B140" s="6" t="inlineStr"/>
       <c r="C140" s="6" t="n">
         <v>0</v>
       </c>
@@ -16303,19 +15379,19 @@
       </c>
       <c r="G140" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: RMG CONSTRUCOES E EMPREENDIMENTOS LTDA: R$ 3835.33</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="inlineStr">
         <is>
-          <t>07730155</t>
+          <t>077301550001</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr">
         <is>
-          <t>0001-SPELATION</t>
+          <t>SPELATION</t>
         </is>
       </c>
       <c r="C141" s="6" t="n">
@@ -16337,14 +15413,10 @@
     <row r="142">
       <c r="A142" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B142" s="6" t="inlineStr">
-        <is>
           <t>080857880001</t>
         </is>
       </c>
+      <c r="B142" s="6" t="inlineStr"/>
       <c r="C142" s="6" t="n">
         <v>0</v>
       </c>
@@ -16361,21 +15433,17 @@
       </c>
       <c r="G142" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: DS DIAGNOSTICA COMERCIO DE APARELHOS LAB: R$ 3501.0</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B143" s="6" t="inlineStr">
-        <is>
           <t>036827840683</t>
         </is>
       </c>
+      <c r="B143" s="6" t="inlineStr"/>
       <c r="C143" s="6" t="n">
         <v>0</v>
       </c>
@@ -16392,21 +15460,17 @@
       </c>
       <c r="G143" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MARIA ANTONIA MORAIS NONATO: R$ 3300.0</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B144" s="6" t="inlineStr">
-        <is>
           <t>030073310008</t>
         </is>
       </c>
+      <c r="B144" s="6" t="inlineStr"/>
       <c r="C144" s="6" t="n">
         <v>0</v>
       </c>
@@ -16423,21 +15487,17 @@
       </c>
       <c r="G144" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: EBAZAR COM BR LTDA: R$ 3194.5</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B145" s="6" t="inlineStr">
-        <is>
           <t>057502270001</t>
         </is>
       </c>
+      <c r="B145" s="6" t="inlineStr"/>
       <c r="C145" s="6" t="n">
         <v>0</v>
       </c>
@@ -16454,21 +15514,17 @@
       </c>
       <c r="G145" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: POLI PECAS E ASSISTENCIA TECNICA LTDA: R$ 2840.0</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B146" s="6" t="inlineStr">
-        <is>
           <t>050515650001</t>
         </is>
       </c>
+      <c r="B146" s="6" t="inlineStr"/>
       <c r="C146" s="6" t="n">
         <v>0</v>
       </c>
@@ -16485,21 +15541,17 @@
       </c>
       <c r="G146" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: CSA CONFECCOES LTDA: R$ 2000.0</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B147" s="6" t="inlineStr">
-        <is>
           <t>131316920001</t>
         </is>
       </c>
+      <c r="B147" s="6" t="inlineStr"/>
       <c r="C147" s="6" t="n">
         <v>0</v>
       </c>
@@ -16516,21 +15568,17 @@
       </c>
       <c r="G147" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MR BOMBAS E VALVULAS LTDA: R$ -1960.17</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B148" s="6" t="inlineStr">
-        <is>
           <t>479609500265</t>
         </is>
       </c>
+      <c r="B148" s="6" t="inlineStr"/>
       <c r="C148" s="6" t="n">
         <v>0</v>
       </c>
@@ -16547,21 +15595,17 @@
       </c>
       <c r="G148" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MAGAZINE LUIZA S/A: R$ 1747.26</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B149" s="6" t="inlineStr">
-        <is>
           <t>172502750003</t>
         </is>
       </c>
+      <c r="B149" s="6" t="inlineStr"/>
       <c r="C149" s="6" t="n">
         <v>0</v>
       </c>
@@ -16578,21 +15622,17 @@
       </c>
       <c r="G149" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: CASA FERREIRA GONCALVES LTDA: R$ -1595.4</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B150" s="6" t="inlineStr">
-        <is>
           <t>377200290003</t>
         </is>
       </c>
+      <c r="B150" s="6" t="inlineStr"/>
       <c r="C150" s="6" t="n">
         <v>0</v>
       </c>
@@ -16609,21 +15649,17 @@
       </c>
       <c r="G150" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: ROMA FRANCE R AUTOMOVEIS E SERVICOS LTDA: R$ 1257.46</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B151" s="6" t="inlineStr">
-        <is>
           <t>335925100035</t>
         </is>
       </c>
+      <c r="B151" s="6" t="inlineStr"/>
       <c r="C151" s="6" t="n">
         <v>0</v>
       </c>
@@ -16640,21 +15676,17 @@
       </c>
       <c r="G151" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: VALE SA: R$ 1210.22</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B152" s="6" t="inlineStr">
-        <is>
           <t>085841160009</t>
         </is>
       </c>
+      <c r="B152" s="6" t="inlineStr"/>
       <c r="C152" s="6" t="n">
         <v>0</v>
       </c>
@@ -16671,21 +15703,17 @@
       </c>
       <c r="G152" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: WEBCONTINENTAL LTDA: R$ 1150.97</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B153" s="6" t="inlineStr">
-        <is>
           <t>389492890001</t>
         </is>
       </c>
+      <c r="B153" s="6" t="inlineStr"/>
       <c r="C153" s="6" t="n">
         <v>0</v>
       </c>
@@ -16702,21 +15730,17 @@
       </c>
       <c r="G153" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: LUMILINE BH ESQUADRIAS DE ALUMINIO: R$ 1150.0</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B154" s="6" t="inlineStr">
-        <is>
           <t>015542850001</t>
         </is>
       </c>
+      <c r="B154" s="6" t="inlineStr"/>
       <c r="C154" s="6" t="n">
         <v>0</v>
       </c>
@@ -16733,21 +15757,17 @@
       </c>
       <c r="G154" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: CERTISIGN CERTIFICADORA: R$ 1025.36</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B155" s="6" t="inlineStr">
-        <is>
           <t>014387840001</t>
         </is>
       </c>
+      <c r="B155" s="6" t="inlineStr"/>
       <c r="C155" s="6" t="n">
         <v>0</v>
       </c>
@@ -16764,19 +15784,19 @@
       </c>
       <c r="G155" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: LEROY MERLIN COMPANHIA BRASILEIRA DE BRI: R$ 938.9</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="inlineStr">
         <is>
-          <t>47960950</t>
+          <t>479609501002</t>
         </is>
       </c>
       <c r="B156" s="6" t="inlineStr">
         <is>
-          <t>1002-MAGAZINE LUIZA S/A</t>
+          <t>MAGAZINE LUIZA S/A</t>
         </is>
       </c>
       <c r="C156" s="6" t="n">
@@ -16798,14 +15818,10 @@
     <row r="157">
       <c r="A157" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B157" s="6" t="inlineStr">
-        <is>
           <t>244985200001</t>
         </is>
       </c>
+      <c r="B157" s="6" t="inlineStr"/>
       <c r="C157" s="6" t="n">
         <v>0</v>
       </c>
@@ -16822,21 +15838,17 @@
       </c>
       <c r="G157" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: ROSA CLARO ARTIGOS PARA FESTAS LTDA: R$ 783.0</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B158" s="6" t="inlineStr">
-        <is>
           <t>129987090001</t>
         </is>
       </c>
+      <c r="B158" s="6" t="inlineStr"/>
       <c r="C158" s="6" t="n">
         <v>0</v>
       </c>
@@ -16853,21 +15865,17 @@
       </c>
       <c r="G158" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: PC BELO HORIZONTE COM DE MAT ELET: R$ 750.0</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B159" s="6" t="inlineStr">
-        <is>
           <t>358234100001</t>
         </is>
       </c>
+      <c r="B159" s="6" t="inlineStr"/>
       <c r="C159" s="6" t="n">
         <v>0</v>
       </c>
@@ -16884,21 +15892,17 @@
       </c>
       <c r="G159" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: IMPERIAL UTILIDADES LTDA: R$ 725.98</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B160" s="6" t="inlineStr">
-        <is>
           <t>206958820001</t>
         </is>
       </c>
+      <c r="B160" s="6" t="inlineStr"/>
       <c r="C160" s="6" t="n">
         <v>0</v>
       </c>
@@ -16915,21 +15919,17 @@
       </c>
       <c r="G160" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: TATAO TRANSPORTES LTDA: R$ -654.05</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B161" s="6" t="inlineStr">
-        <is>
           <t>563846820001</t>
         </is>
       </c>
+      <c r="B161" s="6" t="inlineStr"/>
       <c r="C161" s="6" t="n">
         <v>0</v>
       </c>
@@ -16946,21 +15946,17 @@
       </c>
       <c r="G161" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: DEPOSITO VIGA MATERIAIS DE CONSTRUCAO E: R$ -500.0</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B162" s="6" t="inlineStr">
-        <is>
           <t>232848760001</t>
         </is>
       </c>
+      <c r="B162" s="6" t="inlineStr"/>
       <c r="C162" s="6" t="n">
         <v>0</v>
       </c>
@@ -16977,21 +15973,17 @@
       </c>
       <c r="G162" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: META IMPRESSAO E SOLUCOES DIGITAIS LTDA: R$ 374.5</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B163" s="6" t="inlineStr">
-        <is>
           <t>331625760001</t>
         </is>
       </c>
+      <c r="B163" s="6" t="inlineStr"/>
       <c r="C163" s="6" t="n">
         <v>0</v>
       </c>
@@ -17008,21 +16000,17 @@
       </c>
       <c r="G163" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: BELA PORCELANA COMERCIO LTDA: R$ 337.6</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B164" s="6" t="inlineStr">
-        <is>
           <t>007806160001</t>
         </is>
       </c>
+      <c r="B164" s="6" t="inlineStr"/>
       <c r="C164" s="6" t="n">
         <v>0</v>
       </c>
@@ -17039,21 +16027,17 @@
       </c>
       <c r="G164" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: AMBIENTIS RADIOPROTECAO LTDA: R$ 319.8</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B165" s="6" t="inlineStr">
-        <is>
           <t>171949940004</t>
         </is>
       </c>
+      <c r="B165" s="6" t="inlineStr"/>
       <c r="C165" s="6" t="n">
         <v>0</v>
       </c>
@@ -17070,21 +16054,17 @@
       </c>
       <c r="G165" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MINAS FERRAMENTAS LTDA: R$ -312.2</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B166" s="6" t="inlineStr">
-        <is>
           <t>129141480001</t>
         </is>
       </c>
+      <c r="B166" s="6" t="inlineStr"/>
       <c r="C166" s="6" t="n">
         <v>0</v>
       </c>
@@ -17101,21 +16081,17 @@
       </c>
       <c r="G166" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MAIS QUE CAFE LTDA: R$ 240.71</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B167" s="6" t="inlineStr">
-        <is>
           <t>439723390001</t>
         </is>
       </c>
+      <c r="B167" s="6" t="inlineStr"/>
       <c r="C167" s="6" t="n">
         <v>0</v>
       </c>
@@ -17132,21 +16108,17 @@
       </c>
       <c r="G167" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: DESCONTO MAGAZINE COMERCIO ELETRONICO LT: R$ 196.45</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B168" s="6" t="inlineStr">
-        <is>
           <t>135057210000</t>
         </is>
       </c>
+      <c r="B168" s="6" t="inlineStr"/>
       <c r="C168" s="6" t="n">
         <v>0</v>
       </c>
@@ -17163,21 +16135,17 @@
       </c>
       <c r="G168" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: PRIMECERT CERTIFICADOS DIGITAIS LTDA: R$ 189.0</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B169" s="6" t="inlineStr">
-        <is>
           <t>432367430001</t>
         </is>
       </c>
+      <c r="B169" s="6" t="inlineStr"/>
       <c r="C169" s="6" t="n">
         <v>0</v>
       </c>
@@ -17194,21 +16162,17 @@
       </c>
       <c r="G169" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: MAGAZINE SASSO LTDA: R$ 170.32</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B170" s="6" t="inlineStr">
-        <is>
           <t>477108470001</t>
         </is>
       </c>
+      <c r="B170" s="6" t="inlineStr"/>
       <c r="C170" s="6" t="n">
         <v>0</v>
       </c>
@@ -17225,21 +16189,17 @@
       </c>
       <c r="G170" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: XR JEANS COMERCIO DE ROUPAS LTDA: R$ 155.88</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B171" s="6" t="inlineStr">
-        <is>
           <t>035980500001</t>
         </is>
       </c>
+      <c r="B171" s="6" t="inlineStr"/>
       <c r="C171" s="6" t="n">
         <v>0</v>
       </c>
@@ -17256,21 +16216,17 @@
       </c>
       <c r="G171" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: PONTO DO INCENDIO LTDA: R$ 132.99</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B172" s="6" t="inlineStr">
-        <is>
           <t>088298650001</t>
         </is>
       </c>
+      <c r="B172" s="6" t="inlineStr"/>
       <c r="C172" s="6" t="n">
         <v>0</v>
       </c>
@@ -17287,21 +16243,17 @@
       </c>
       <c r="G172" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: TECNOPAR TECNOLOGIA EM AUTOMACOES LTDA: R$ 127.79</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B173" s="6" t="inlineStr">
-        <is>
           <t>030073310001</t>
         </is>
       </c>
+      <c r="B173" s="6" t="inlineStr"/>
       <c r="C173" s="6" t="n">
         <v>0</v>
       </c>
@@ -17318,21 +16270,17 @@
       </c>
       <c r="G173" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: EBAZAR.COM.BR. LTDA: R$ 99.99</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B174" s="6" t="inlineStr">
-        <is>
           <t>077301550001</t>
         </is>
       </c>
+      <c r="B174" s="6" t="inlineStr"/>
       <c r="C174" s="6" t="n">
         <v>0</v>
       </c>
@@ -17349,21 +16297,17 @@
       </c>
       <c r="G174" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: SPELATION - ARTIGOS ESPORTIVOS LTDA: R$ 37.99</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B175" s="6" t="inlineStr">
-        <is>
           <t>263877130001</t>
         </is>
       </c>
+      <c r="B175" s="6" t="inlineStr"/>
       <c r="C175" s="6" t="n">
         <v>0</v>
       </c>
@@ -17380,25 +16324,23 @@
       </c>
       <c r="G175" s="6" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: BORRACHARIA SARZEDO EIRELI: R$ 31.53</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B176" s="8" t="inlineStr">
-        <is>
           <t>000000000002</t>
         </is>
       </c>
+      <c r="B176" s="8" t="inlineStr"/>
       <c r="C176" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D176" s="8" t="inlineStr"/>
+      <c r="D176" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E176" s="9" t="n">
         <v>0</v>
       </c>
@@ -17409,25 +16351,23 @@
       </c>
       <c r="G176" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B177" s="8" t="inlineStr">
-        <is>
           <t>000000660666</t>
         </is>
       </c>
+      <c r="B177" s="8" t="inlineStr"/>
       <c r="C177" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D177" s="8" t="inlineStr"/>
+      <c r="D177" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E177" s="9" t="n">
         <v>0</v>
       </c>
@@ -17438,25 +16378,23 @@
       </c>
       <c r="G177" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B178" s="8" t="inlineStr">
-        <is>
           <t>014093480001</t>
         </is>
       </c>
+      <c r="B178" s="8" t="inlineStr"/>
       <c r="C178" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D178" s="8" t="inlineStr"/>
+      <c r="D178" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E178" s="9" t="n">
         <v>0</v>
       </c>
@@ -17467,25 +16405,23 @@
       </c>
       <c r="G178" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B179" s="8" t="inlineStr">
-        <is>
           <t>016125090001</t>
         </is>
       </c>
+      <c r="B179" s="8" t="inlineStr"/>
       <c r="C179" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D179" s="8" t="inlineStr"/>
+      <c r="D179" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E179" s="9" t="n">
         <v>0</v>
       </c>
@@ -17496,25 +16432,23 @@
       </c>
       <c r="G179" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B180" s="8" t="inlineStr">
-        <is>
           <t>030344330001</t>
         </is>
       </c>
+      <c r="B180" s="8" t="inlineStr"/>
       <c r="C180" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D180" s="8" t="inlineStr"/>
+      <c r="D180" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E180" s="9" t="n">
         <v>0</v>
       </c>
@@ -17525,25 +16459,23 @@
       </c>
       <c r="G180" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B181" s="8" t="inlineStr">
-        <is>
           <t>040978000001</t>
         </is>
       </c>
+      <c r="B181" s="8" t="inlineStr"/>
       <c r="C181" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D181" s="8" t="inlineStr"/>
+      <c r="D181" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E181" s="9" t="n">
         <v>0</v>
       </c>
@@ -17554,25 +16486,23 @@
       </c>
       <c r="G181" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B182" s="8" t="inlineStr">
-        <is>
           <t>069811800001</t>
         </is>
       </c>
+      <c r="B182" s="8" t="inlineStr"/>
       <c r="C182" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D182" s="8" t="inlineStr"/>
+      <c r="D182" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E182" s="9" t="n">
         <v>0</v>
       </c>
@@ -17583,25 +16513,23 @@
       </c>
       <c r="G182" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B183" s="8" t="inlineStr">
-        <is>
           <t>083182350001</t>
         </is>
       </c>
+      <c r="B183" s="8" t="inlineStr"/>
       <c r="C183" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D183" s="8" t="inlineStr"/>
+      <c r="D183" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E183" s="9" t="n">
         <v>0</v>
       </c>
@@ -17612,25 +16540,23 @@
       </c>
       <c r="G183" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B184" s="8" t="inlineStr">
-        <is>
           <t>104267150001</t>
         </is>
       </c>
+      <c r="B184" s="8" t="inlineStr"/>
       <c r="C184" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D184" s="8" t="inlineStr"/>
+      <c r="D184" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E184" s="9" t="n">
         <v>0</v>
       </c>
@@ -17641,25 +16567,23 @@
       </c>
       <c r="G184" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B185" s="8" t="inlineStr">
-        <is>
           <t>117043940001</t>
         </is>
       </c>
+      <c r="B185" s="8" t="inlineStr"/>
       <c r="C185" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D185" s="8" t="inlineStr"/>
+      <c r="D185" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E185" s="9" t="n">
         <v>0</v>
       </c>
@@ -17670,25 +16594,23 @@
       </c>
       <c r="G185" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B186" s="8" t="inlineStr">
-        <is>
           <t>122801550001</t>
         </is>
       </c>
+      <c r="B186" s="8" t="inlineStr"/>
       <c r="C186" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D186" s="8" t="inlineStr"/>
+      <c r="D186" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E186" s="9" t="n">
         <v>0</v>
       </c>
@@ -17699,21 +16621,17 @@
       </c>
       <c r="G186" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B187" s="8" t="inlineStr">
-        <is>
           <t>130998120001</t>
         </is>
       </c>
+      <c r="B187" s="8" t="inlineStr"/>
       <c r="C187" s="8" t="n">
         <v>0</v>
       </c>
@@ -17730,25 +16648,23 @@
       </c>
       <c r="G187" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: ALL PROCESS SERVICOS TECNICOS LTDA: R$ 50080.45 | ALL PROCESS SERVICOS TECNICOS LTDA: R$ -50080.45</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B188" s="8" t="inlineStr">
-        <is>
           <t>131845310001</t>
         </is>
       </c>
+      <c r="B188" s="8" t="inlineStr"/>
       <c r="C188" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D188" s="8" t="inlineStr"/>
+      <c r="D188" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E188" s="9" t="n">
         <v>0</v>
       </c>
@@ -17759,25 +16675,23 @@
       </c>
       <c r="G188" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B189" s="8" t="inlineStr">
-        <is>
           <t>192962690001</t>
         </is>
       </c>
+      <c r="B189" s="8" t="inlineStr"/>
       <c r="C189" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D189" s="8" t="inlineStr"/>
+      <c r="D189" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E189" s="9" t="n">
         <v>0</v>
       </c>
@@ -17788,25 +16702,23 @@
       </c>
       <c r="G189" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B190" s="8" t="inlineStr">
-        <is>
           <t>192972900001</t>
         </is>
       </c>
+      <c r="B190" s="8" t="inlineStr"/>
       <c r="C190" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D190" s="8" t="inlineStr"/>
+      <c r="D190" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E190" s="9" t="n">
         <v>0</v>
       </c>
@@ -17817,25 +16729,23 @@
       </c>
       <c r="G190" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B191" s="8" t="inlineStr">
-        <is>
           <t>197918960001</t>
         </is>
       </c>
+      <c r="B191" s="8" t="inlineStr"/>
       <c r="C191" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D191" s="8" t="inlineStr"/>
+      <c r="D191" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E191" s="9" t="n">
         <v>0</v>
       </c>
@@ -17846,25 +16756,23 @@
       </c>
       <c r="G191" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B192" s="8" t="inlineStr">
-        <is>
           <t>251382500001</t>
         </is>
       </c>
+      <c r="B192" s="8" t="inlineStr"/>
       <c r="C192" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D192" s="8" t="inlineStr"/>
+      <c r="D192" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E192" s="9" t="n">
         <v>0</v>
       </c>
@@ -17875,21 +16783,17 @@
       </c>
       <c r="G192" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B193" s="8" t="inlineStr">
-        <is>
           <t>263660000001</t>
         </is>
       </c>
+      <c r="B193" s="8" t="inlineStr"/>
       <c r="C193" s="8" t="n">
         <v>0</v>
       </c>
@@ -17906,25 +16810,23 @@
       </c>
       <c r="G193" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: CJA PUBLICIDADE LTDA: R$ -1279.0 | CJA PUBLICIDADE LTDA: R$ 1279.0</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B194" s="8" t="inlineStr">
-        <is>
           <t>273623490001</t>
         </is>
       </c>
+      <c r="B194" s="8" t="inlineStr"/>
       <c r="C194" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D194" s="8" t="inlineStr"/>
+      <c r="D194" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E194" s="9" t="n">
         <v>0</v>
       </c>
@@ -17935,21 +16837,17 @@
       </c>
       <c r="G194" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B195" s="8" t="inlineStr">
-        <is>
           <t>309133240001</t>
         </is>
       </c>
+      <c r="B195" s="8" t="inlineStr"/>
       <c r="C195" s="8" t="n">
         <v>0</v>
       </c>
@@ -17966,25 +16864,23 @@
       </c>
       <c r="G195" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: FISCAL.IO TECNOLOGIA DA INFORMACAO LTDA: R$ -1281.51 | FISCAL.IO TECNOLOGIA DA INFORMACAO LTDA: R$ 1281.51</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B196" s="8" t="inlineStr">
-        <is>
           <t>337434680001</t>
         </is>
       </c>
+      <c r="B196" s="8" t="inlineStr"/>
       <c r="C196" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D196" s="8" t="inlineStr"/>
+      <c r="D196" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E196" s="9" t="n">
         <v>0</v>
       </c>
@@ -17995,25 +16891,23 @@
       </c>
       <c r="G196" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B197" s="8" t="inlineStr">
-        <is>
           <t>410674700001</t>
         </is>
       </c>
+      <c r="B197" s="8" t="inlineStr"/>
       <c r="C197" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D197" s="8" t="inlineStr"/>
+      <c r="D197" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E197" s="9" t="n">
         <v>0</v>
       </c>
@@ -18024,25 +16918,23 @@
       </c>
       <c r="G197" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B198" s="8" t="inlineStr">
-        <is>
           <t>437168150001</t>
         </is>
       </c>
+      <c r="B198" s="8" t="inlineStr"/>
       <c r="C198" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D198" s="8" t="inlineStr"/>
+      <c r="D198" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E198" s="9" t="n">
         <v>0</v>
       </c>
@@ -18053,25 +16945,23 @@
       </c>
       <c r="G198" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B199" s="8" t="inlineStr">
-        <is>
           <t>477319110001</t>
         </is>
       </c>
+      <c r="B199" s="8" t="inlineStr"/>
       <c r="C199" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D199" s="8" t="inlineStr"/>
+      <c r="D199" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E199" s="9" t="n">
         <v>0</v>
       </c>
@@ -18082,25 +16972,23 @@
       </c>
       <c r="G199" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B200" s="8" t="inlineStr">
-        <is>
           <t>505682260001</t>
         </is>
       </c>
+      <c r="B200" s="8" t="inlineStr"/>
       <c r="C200" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D200" s="8" t="inlineStr"/>
+      <c r="D200" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E200" s="9" t="n">
         <v>0</v>
       </c>
@@ -18111,25 +16999,23 @@
       </c>
       <c r="G200" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B201" s="8" t="inlineStr">
-        <is>
           <t>593294760001</t>
         </is>
       </c>
+      <c r="B201" s="8" t="inlineStr"/>
       <c r="C201" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D201" s="8" t="inlineStr"/>
+      <c r="D201" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E201" s="9" t="n">
         <v>0</v>
       </c>
@@ -18140,25 +17026,23 @@
       </c>
       <c r="G201" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B202" s="8" t="inlineStr">
-        <is>
           <t>596699020001</t>
         </is>
       </c>
+      <c r="B202" s="8" t="inlineStr"/>
       <c r="C202" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D202" s="8" t="inlineStr"/>
+      <c r="D202" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E202" s="9" t="n">
         <v>0</v>
       </c>
@@ -18169,25 +17053,23 @@
       </c>
       <c r="G202" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B203" s="8" t="inlineStr">
-        <is>
           <t>648269930001</t>
         </is>
       </c>
+      <c r="B203" s="8" t="inlineStr"/>
       <c r="C203" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="D203" s="8" t="inlineStr"/>
+      <c r="D203" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="E203" s="9" t="n">
         <v>0</v>
       </c>
@@ -18198,7 +17080,7 @@
       </c>
       <c r="G203" s="8" t="inlineStr">
         <is>
-          <t>Adiantamento contábil sem correspondência financeira</t>
+          <t>Adiantamento: Nenhum registro contábil</t>
         </is>
       </c>
     </row>
@@ -18235,7 +17117,7 @@
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>01/10/2025 08:19:39</t>
+          <t>01/10/2025 09:03:33</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
@@ -17113,7 +17113,7 @@
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>02/10/2025 16:20:13</t>
+          <t>03/10/2025 09:02:36</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
@@ -17113,7 +17113,7 @@
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>03/10/2025 09:02:36</t>
+          <t>03/10/2025 11:05:19</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
@@ -18013,7 +18013,7 @@
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>06/10/2025 09:05:52</t>
+          <t>06/10/2025 09:31:57</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
@@ -9366,7 +9366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9427,12 +9427,16 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>000000000002</t>
+          <t>00000000010</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="inlineStr"/>
-      <c r="F2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="n">
+        <v>5551.68</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>5551.68</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -9447,15 +9451,15 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>00000000010</t>
+          <t>003603050001</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="n">
-        <v>5551.68</v>
+        <v>80000.75999999999</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5551.68</v>
+        <v>53733.84</v>
       </c>
     </row>
     <row r="4">
@@ -9471,12 +9475,16 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>000000660666</t>
+          <t>007806160001</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>319.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -9491,15 +9499,15 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>003603050001</t>
+          <t>009726960001</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="3" t="n">
-        <v>80000.75999999999</v>
+        <v>22500</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>53733.84</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -9515,15 +9523,15 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>007806160001</t>
+          <t>009726960003</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="3" t="n">
-        <v>319.8</v>
+        <v>15300</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>319.8</v>
+        <v>15300</v>
       </c>
     </row>
     <row r="7">
@@ -9539,15 +9547,15 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>009726960001</t>
+          <t>012913870006</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="8">
@@ -9563,15 +9571,15 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>009726960003</t>
+          <t>014172220001</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="3" t="n">
-        <v>15300</v>
+        <v>13310078.56</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>15300</v>
+        <v>13310078.56</v>
       </c>
     </row>
     <row r="9">
@@ -9587,15 +9595,15 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>012913870006</t>
+          <t>014172220003</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="3" t="n">
-        <v>15000</v>
+        <v>-13296578.56</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>15000</v>
+        <v>-13296578.56</v>
       </c>
     </row>
     <row r="10">
@@ -9611,14 +9619,16 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>014093480001</t>
+          <t>015542850001</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="n">
-        <v>261653.8</v>
-      </c>
-      <c r="F10" s="3" t="inlineStr"/>
+        <v>1700.18</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1025.36</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -9633,15 +9643,15 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>014172220001</t>
+          <t>030073310001</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="3" t="n">
-        <v>13310078.56</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>13310078.56</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -9657,15 +9667,15 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>014172220003</t>
+          <t>030073310008</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="n">
-        <v>-13296578.56</v>
+        <v>3194.5</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>-13296578.56</v>
+        <v>3194.5</v>
       </c>
     </row>
     <row r="13">
@@ -9681,13 +9691,15 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>014387840001</t>
+          <t>033023370001</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr"/>
+      <c r="E13" s="3" t="n">
+        <v>-13511.24</v>
+      </c>
       <c r="F13" s="4" t="n">
-        <v>938.9</v>
+        <v>-13511.24</v>
       </c>
     </row>
     <row r="14">
@@ -9703,15 +9715,15 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>015542850001</t>
+          <t>035980500001</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="n">
-        <v>1700.18</v>
+        <v>132.99</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>1025.36</v>
+        <v>132.99</v>
       </c>
     </row>
     <row r="15">
@@ -9727,14 +9739,16 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>016125090001</t>
+          <t>036827840683</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="3" t="n">
-        <v>364666.48</v>
-      </c>
-      <c r="F15" s="3" t="inlineStr"/>
+        <v>3300</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -9749,15 +9763,15 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>030073310001</t>
+          <t>041793840001</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="n">
-        <v>99.98999999999999</v>
+        <v>283090.54</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>99.98999999999999</v>
+        <v>283090.54</v>
       </c>
     </row>
     <row r="17">
@@ -9773,15 +9787,15 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>030073310008</t>
+          <t>049153150001</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="n">
-        <v>3194.5</v>
+        <v>51119.2</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>3194.5</v>
+        <v>51119.2</v>
       </c>
     </row>
     <row r="18">
@@ -9797,12 +9811,16 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>030344330001</t>
+          <t>050515650001</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -9817,15 +9835,15 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>033023370001</t>
+          <t>055291170009</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="n">
-        <v>-13511.24</v>
+        <v>5395.6</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>-13511.24</v>
+        <v>5395.6</v>
       </c>
     </row>
     <row r="20">
@@ -9841,15 +9859,15 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>035980500001</t>
+          <t>063499160001</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="n">
-        <v>132.99</v>
+        <v>321063.08</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>132.99</v>
+        <v>321063.08</v>
       </c>
     </row>
     <row r="21">
@@ -9865,15 +9883,15 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>036827840683</t>
+          <t>069427930001</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="3" t="n">
-        <v>3300</v>
+        <v>55395.27</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>3300</v>
+        <v>55395.27</v>
       </c>
     </row>
     <row r="22">
@@ -9889,12 +9907,16 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>040978000001</t>
+          <t>069811760001</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="n">
+        <v>659455.84</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>91223.03999999999</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -9909,15 +9931,15 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>041793840001</t>
+          <t>071757250004</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="3" t="n">
-        <v>283090.54</v>
+        <v>37995.28</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>283090.54</v>
+        <v>37995.28</v>
       </c>
     </row>
     <row r="24">
@@ -9933,15 +9955,15 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>049153150001</t>
+          <t>071757250010</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="3" t="n">
-        <v>51119.2</v>
+        <v>269722.11</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>51119.2</v>
+        <v>269722.11</v>
       </c>
     </row>
     <row r="25">
@@ -9957,15 +9979,15 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>050515650001</t>
+          <t>073587610239</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="3" t="n">
-        <v>50000</v>
+        <v>50987.3</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>2000</v>
+        <v>50987.3</v>
       </c>
     </row>
     <row r="26">
@@ -9981,15 +10003,15 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>055291170009</t>
+          <t>077301550001</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="n">
-        <v>5395.6</v>
+        <v>37.99</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>5395.6</v>
+        <v>37.99</v>
       </c>
     </row>
     <row r="27">
@@ -10005,13 +10027,15 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>057502270001</t>
+          <t>080857880001</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="n">
+        <v>3501</v>
+      </c>
       <c r="F27" s="4" t="n">
-        <v>2840</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="28">
@@ -10027,15 +10051,15 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>063499160001</t>
+          <t>082191520001</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="n">
-        <v>321063.08</v>
+        <v>80000</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>321063.08</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="29">
@@ -10051,15 +10075,15 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>069427930001</t>
+          <t>085841160009</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="3" t="n">
-        <v>55395.27</v>
+        <v>1150.97</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>55395.27</v>
+        <v>1150.97</v>
       </c>
     </row>
     <row r="30">
@@ -10075,15 +10099,15 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>069811760001</t>
+          <t>086839640002</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="3" t="n">
-        <v>659455.84</v>
+        <v>6480</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>91223.03999999999</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="31">
@@ -10099,12 +10123,16 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>069811800001</t>
+          <t>088298650001</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="n">
+        <v>127.79</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>127.79</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
@@ -10119,15 +10147,15 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>071757250004</t>
+          <t>108221430001</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="3" t="n">
-        <v>37995.28</v>
+        <v>62363</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>37995.28</v>
+        <v>3835.33</v>
       </c>
     </row>
     <row r="33">
@@ -10143,15 +10171,15 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>071757250010</t>
+          <t>125381560001</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="3" t="n">
-        <v>269722.11</v>
+        <v>965438.1</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>269722.11</v>
+        <v>965438.1</v>
       </c>
     </row>
     <row r="34">
@@ -10167,15 +10195,15 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>073587610239</t>
+          <t>129141480001</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="3" t="n">
-        <v>50987.3</v>
+        <v>240.71</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>50987.3</v>
+        <v>240.71</v>
       </c>
     </row>
     <row r="35">
@@ -10191,15 +10219,15 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>077301550001</t>
+          <t>129987090001</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="n">
-        <v>37.99</v>
+        <v>750</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>37.99</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36">
@@ -10215,15 +10243,15 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>080857880001</t>
+          <t>131316920001</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="3" t="n">
-        <v>3501</v>
+        <v>-1960.17</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>3501</v>
+        <v>-1960.17</v>
       </c>
     </row>
     <row r="37">
@@ -10239,15 +10267,15 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>082191520001</t>
+          <t>143099920001</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="3" t="n">
-        <v>80000</v>
+        <v>953130.27</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>80000</v>
+        <v>953130.27</v>
       </c>
     </row>
     <row r="38">
@@ -10263,14 +10291,16 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>083182350001</t>
+          <t>171701500001</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="3" t="n">
-        <v>19500</v>
-      </c>
-      <c r="F38" s="3" t="inlineStr"/>
+        <v>37639.54</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>37639.54</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -10285,15 +10315,15 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>085841160009</t>
+          <t>171949940004</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="3" t="n">
-        <v>1150.97</v>
+        <v>-312.2</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1150.97</v>
+        <v>-312.2</v>
       </c>
     </row>
     <row r="40">
@@ -10309,15 +10339,15 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>086839640002</t>
+          <t>172082570001</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="n">
-        <v>6480</v>
+        <v>20604</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>6480</v>
+        <v>457871.2</v>
       </c>
     </row>
     <row r="41">
@@ -10333,15 +10363,15 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>088298650001</t>
+          <t>172502750003</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="3" t="n">
-        <v>127.79</v>
+        <v>-1595.4</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>127.79</v>
+        <v>-1595.4</v>
       </c>
     </row>
     <row r="42">
@@ -10357,14 +10387,16 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>104267150001</t>
+          <t>174313540001</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="3" t="n">
-        <v>1825.25</v>
-      </c>
-      <c r="F42" s="3" t="inlineStr"/>
+        <v>67763.95</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>67763.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -10379,15 +10411,15 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>108221430001</t>
+          <t>174714420001</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="3" t="n">
-        <v>62363</v>
+        <v>700000</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>3835.33</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="44">
@@ -10403,14 +10435,16 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>117043940001</t>
+          <t>186891250002</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="3" t="n">
-        <v>49200</v>
-      </c>
-      <c r="F44" s="3" t="inlineStr"/>
+        <v>2668913.31</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>2668913.31</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -10425,14 +10459,16 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>122801550001</t>
+          <t>193299630001</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="3" t="n">
-        <v>77500</v>
-      </c>
-      <c r="F45" s="3" t="inlineStr"/>
+        <v>61376</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>62080</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -10447,15 +10483,15 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>125381560001</t>
+          <t>211545540001</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="3" t="n">
-        <v>965438.1</v>
+        <v>1000000</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>965438.1</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="47">
@@ -10471,15 +10507,15 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>129141480001</t>
+          <t>229312990001</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="3" t="n">
-        <v>240.71</v>
+        <v>520000</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>240.71</v>
+        <v>780000</v>
       </c>
     </row>
     <row r="48">
@@ -10495,15 +10531,15 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>129987090001</t>
+          <t>232848760001</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="3" t="n">
-        <v>750</v>
+        <v>374.5</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>750</v>
+        <v>374.5</v>
       </c>
     </row>
     <row r="49">
@@ -10519,13 +10555,15 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>130998120001</t>
+          <t>244985200001</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="inlineStr"/>
+      <c r="E49" s="3" t="n">
+        <v>783</v>
+      </c>
       <c r="F49" s="4" t="n">
-        <v>50080.45</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50">
@@ -10541,13 +10579,15 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>130998120001</t>
+          <t>253721110001</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="inlineStr"/>
+      <c r="E50" s="3" t="n">
+        <v>-112620</v>
+      </c>
       <c r="F50" s="4" t="n">
-        <v>-50080.45</v>
+        <v>-112620</v>
       </c>
     </row>
     <row r="51">
@@ -10563,15 +10603,15 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>131316920001</t>
+          <t>263660000001</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="3" t="n">
-        <v>-1960.17</v>
+        <v>-1279</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>-1960.17</v>
+        <v>-1279</v>
       </c>
     </row>
     <row r="52">
@@ -10587,14 +10627,16 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>131845310001</t>
+          <t>263660000001</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="n">
-        <v>2700</v>
-      </c>
-      <c r="F52" s="3" t="inlineStr"/>
+        <v>1279</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>1279</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -10609,13 +10651,15 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>135057210000</t>
+          <t>274810320001</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr"/>
-      <c r="E53" s="3" t="inlineStr"/>
+      <c r="E53" s="3" t="n">
+        <v>604411.05</v>
+      </c>
       <c r="F53" s="4" t="n">
-        <v>189</v>
+        <v>1907127.43</v>
       </c>
     </row>
     <row r="54">
@@ -10631,15 +10675,15 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>143099920001</t>
+          <t>293023480003</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="n">
-        <v>953130.27</v>
+        <v>13699.8</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>953130.27</v>
+        <v>13699.8</v>
       </c>
     </row>
     <row r="55">
@@ -10655,15 +10699,15 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>171701500001</t>
+          <t>309133240001</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="n">
-        <v>37639.54</v>
+        <v>-1281.51</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>37639.54</v>
+        <v>-1281.51</v>
       </c>
     </row>
     <row r="56">
@@ -10679,15 +10723,15 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>171949940004</t>
+          <t>309133240001</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="3" t="n">
-        <v>-312.2</v>
+        <v>1281.51</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>-312.2</v>
+        <v>1281.51</v>
       </c>
     </row>
     <row r="57">
@@ -10703,15 +10747,15 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>172082570001</t>
+          <t>331315410001</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="3" t="n">
-        <v>20604</v>
+        <v>699891.58</v>
       </c>
       <c r="F57" s="4" t="n">
-        <v>457871.2</v>
+        <v>759353</v>
       </c>
     </row>
     <row r="58">
@@ -10727,15 +10771,15 @@
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>172502750003</t>
+          <t>331625760001</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="3" t="n">
-        <v>-1595.4</v>
+        <v>337.6</v>
       </c>
       <c r="F58" s="4" t="n">
-        <v>-1595.4</v>
+        <v>337.6</v>
       </c>
     </row>
     <row r="59">
@@ -10751,15 +10795,15 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>174313540001</t>
+          <t>333009710001</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="3" t="n">
-        <v>67763.95</v>
+        <v>25000</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>67763.95</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="60">
@@ -10775,15 +10819,15 @@
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>174714420001</t>
+          <t>333371220211</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="n">
-        <v>700000</v>
+        <v>1200210</v>
       </c>
       <c r="F60" s="4" t="n">
-        <v>700000</v>
+        <v>3703280</v>
       </c>
     </row>
     <row r="61">
@@ -10799,15 +10843,15 @@
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>186891250002</t>
+          <t>335925100001</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="3" t="n">
-        <v>2668913.31</v>
+        <v>-839238.66</v>
       </c>
       <c r="F61" s="4" t="n">
-        <v>2668913.31</v>
+        <v>-839238.66</v>
       </c>
     </row>
     <row r="62">
@@ -10823,12 +10867,16 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>192962690001</t>
+          <t>335925100007</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr"/>
-      <c r="E62" s="3" t="inlineStr"/>
-      <c r="F62" s="3" t="inlineStr"/>
+      <c r="E62" s="3" t="n">
+        <v>1446574.01</v>
+      </c>
+      <c r="F62" s="4" t="n">
+        <v>645464.1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
@@ -10843,12 +10891,16 @@
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>192972900001</t>
+          <t>335925100034</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr"/>
-      <c r="E63" s="3" t="inlineStr"/>
-      <c r="F63" s="3" t="inlineStr"/>
+      <c r="E63" s="3" t="n">
+        <v>1128935.61</v>
+      </c>
+      <c r="F63" s="4" t="n">
+        <v>500754.88</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
@@ -10863,15 +10915,15 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>193299630001</t>
+          <t>335925100035</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="3" t="n">
-        <v>61376</v>
+        <v>1210.22</v>
       </c>
       <c r="F64" s="4" t="n">
-        <v>62080</v>
+        <v>1210.22</v>
       </c>
     </row>
     <row r="65">
@@ -10887,12 +10939,16 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>197918960001</t>
+          <t>335925100044</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr"/>
-      <c r="E65" s="3" t="inlineStr"/>
-      <c r="F65" s="3" t="inlineStr"/>
+      <c r="E65" s="3" t="n">
+        <v>48436.51</v>
+      </c>
+      <c r="F65" s="4" t="n">
+        <v>48436.51</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
@@ -10907,13 +10963,15 @@
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>206958820001</t>
+          <t>343702810001</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr"/>
-      <c r="E66" s="3" t="inlineStr"/>
+      <c r="E66" s="3" t="n">
+        <v>50000</v>
+      </c>
       <c r="F66" s="4" t="n">
-        <v>-654.05</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="67">
@@ -10929,15 +10987,15 @@
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>211545540001</t>
+          <t>358234100001</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="3" t="n">
-        <v>1000000</v>
+        <v>725.98</v>
       </c>
       <c r="F67" s="4" t="n">
-        <v>1000000</v>
+        <v>725.98</v>
       </c>
     </row>
     <row r="68">
@@ -10953,15 +11011,15 @@
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>229312990001</t>
+          <t>377200290003</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="3" t="n">
-        <v>520000</v>
+        <v>1257.46</v>
       </c>
       <c r="F68" s="4" t="n">
-        <v>780000</v>
+        <v>1257.46</v>
       </c>
     </row>
     <row r="69">
@@ -10977,15 +11035,15 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>232848760001</t>
+          <t>389492890001</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="3" t="n">
-        <v>374.5</v>
+        <v>1150</v>
       </c>
       <c r="F69" s="4" t="n">
-        <v>374.5</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="70">
@@ -11001,15 +11059,15 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>244985200001</t>
+          <t>403391050001</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="3" t="n">
-        <v>783</v>
+        <v>19168.5</v>
       </c>
       <c r="F70" s="4" t="n">
-        <v>783</v>
+        <v>19168.5</v>
       </c>
     </row>
     <row r="71">
@@ -11025,12 +11083,16 @@
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>251382500001</t>
+          <t>418400260008</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr"/>
-      <c r="E71" s="3" t="inlineStr"/>
-      <c r="F71" s="3" t="inlineStr"/>
+      <c r="E71" s="3" t="n">
+        <v>19356</v>
+      </c>
+      <c r="F71" s="4" t="n">
+        <v>19356</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -11045,15 +11107,15 @@
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>253721110001</t>
+          <t>432367430001</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="3" t="n">
-        <v>-112620</v>
+        <v>170.32</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>-112620</v>
+        <v>170.32</v>
       </c>
     </row>
     <row r="73">
@@ -11069,13 +11131,15 @@
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>256146860001</t>
+          <t>436264070006</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr"/>
-      <c r="E73" s="3" t="inlineStr"/>
+      <c r="E73" s="3" t="n">
+        <v>39300</v>
+      </c>
       <c r="F73" s="4" t="n">
-        <v>-144776.47</v>
+        <v>39300</v>
       </c>
     </row>
     <row r="74">
@@ -11091,15 +11155,15 @@
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>263660000001</t>
+          <t>436264070007</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="3" t="n">
-        <v>-1279</v>
+        <v>114450</v>
       </c>
       <c r="F74" s="4" t="n">
-        <v>-1279</v>
+        <v>114450</v>
       </c>
     </row>
     <row r="75">
@@ -11115,15 +11179,15 @@
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>263660000001</t>
+          <t>439723390001</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="3" t="n">
-        <v>1279</v>
+        <v>196.45</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>1279</v>
+        <v>196.45</v>
       </c>
     </row>
     <row r="76">
@@ -11139,13 +11203,15 @@
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>263877130001</t>
+          <t>477108470001</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr"/>
-      <c r="E76" s="3" t="inlineStr"/>
+      <c r="E76" s="3" t="n">
+        <v>155.88</v>
+      </c>
       <c r="F76" s="4" t="n">
-        <v>31.53</v>
+        <v>155.88</v>
       </c>
     </row>
     <row r="77">
@@ -11161,14 +11227,16 @@
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>273623490001</t>
+          <t>479609500001</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="n">
-        <v>5997.6</v>
-      </c>
-      <c r="F77" s="3" t="inlineStr"/>
+        <v>22993.96</v>
+      </c>
+      <c r="F77" s="4" t="n">
+        <v>26236.38</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
@@ -11183,15 +11251,15 @@
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>274810320001</t>
+          <t>479609500265</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="3" t="n">
-        <v>604411.05</v>
+        <v>1747.26</v>
       </c>
       <c r="F78" s="4" t="n">
-        <v>1907127.43</v>
+        <v>1747.26</v>
       </c>
     </row>
     <row r="79">
@@ -11207,15 +11275,15 @@
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>293023480003</t>
+          <t>479609500643</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="3" t="n">
-        <v>13699.8</v>
+        <v>8146.12</v>
       </c>
       <c r="F79" s="4" t="n">
-        <v>13699.8</v>
+        <v>8146.12</v>
       </c>
     </row>
     <row r="80">
@@ -11231,15 +11299,15 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>309133240001</t>
+          <t>479609500945</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="3" t="n">
-        <v>-1281.51</v>
+        <v>-4464.05</v>
       </c>
       <c r="F80" s="4" t="n">
-        <v>-1281.51</v>
+        <v>-22993.96</v>
       </c>
     </row>
     <row r="81">
@@ -11255,15 +11323,15 @@
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>309133240001</t>
+          <t>484370560001</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="3" t="n">
-        <v>1281.51</v>
+        <v>-4302.9</v>
       </c>
       <c r="F81" s="4" t="n">
-        <v>1281.51</v>
+        <v>-4302.9</v>
       </c>
     </row>
     <row r="82">
@@ -11279,13 +11347,15 @@
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>312280090001</t>
+          <t>501170490001</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr"/>
-      <c r="E82" s="3" t="inlineStr"/>
+      <c r="E82" s="3" t="n">
+        <v>1499433.3</v>
+      </c>
       <c r="F82" s="4" t="n">
-        <v>-5470</v>
+        <v>1426469.61</v>
       </c>
     </row>
     <row r="83">
@@ -11301,13 +11371,15 @@
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>327204580001</t>
+          <t>511639100001</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr"/>
-      <c r="E83" s="3" t="inlineStr"/>
+      <c r="E83" s="3" t="n">
+        <v>2400000</v>
+      </c>
       <c r="F83" s="4" t="n">
-        <v>-47905.26</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="84">
@@ -11323,15 +11395,15 @@
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>331315410001</t>
+          <t>549671780001</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="3" t="n">
-        <v>699891.58</v>
+        <v>4513959</v>
       </c>
       <c r="F84" s="4" t="n">
-        <v>759353</v>
+        <v>4513959</v>
       </c>
     </row>
     <row r="85">
@@ -11347,15 +11419,15 @@
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>331625760001</t>
+          <t>563846820001</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="3" t="n">
-        <v>337.6</v>
+        <v>-500</v>
       </c>
       <c r="F85" s="4" t="n">
-        <v>337.6</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="86">
@@ -11371,15 +11443,15 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>333009710001</t>
+          <t>586263000001</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="3" t="n">
-        <v>25000</v>
+        <v>191495</v>
       </c>
       <c r="F86" s="4" t="n">
-        <v>25000</v>
+        <v>191495</v>
       </c>
     </row>
     <row r="87">
@@ -11395,15 +11467,15 @@
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>333371220211</t>
+          <t>723811890010</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="3" t="n">
-        <v>1200210</v>
+        <v>53518.32</v>
       </c>
       <c r="F87" s="4" t="n">
-        <v>3703280</v>
+        <v>46769.37</v>
       </c>
     </row>
     <row r="88">
@@ -11417,17 +11489,17 @@
           <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>335925100001</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr"/>
+      <c r="C88" s="3" t="inlineStr"/>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>INPS0000</t>
+        </is>
+      </c>
       <c r="E88" s="3" t="n">
-        <v>-839238.66</v>
+        <v>-786170.33</v>
       </c>
       <c r="F88" s="4" t="n">
-        <v>-839238.66</v>
+        <v>-786170.33</v>
       </c>
     </row>
     <row r="89">
@@ -11441,17 +11513,17 @@
           <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
         </is>
       </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>335925100007</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr"/>
+      <c r="C89" s="3" t="inlineStr"/>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>MUNIC0000</t>
+        </is>
+      </c>
       <c r="E89" s="3" t="n">
-        <v>1446574.01</v>
+        <v>8222.08</v>
       </c>
       <c r="F89" s="4" t="n">
-        <v>645464.1</v>
+        <v>9445.01</v>
       </c>
     </row>
     <row r="90">
@@ -11465,15 +11537,17 @@
           <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
         </is>
       </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>335925100007</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr"/>
-      <c r="E90" s="3" t="inlineStr"/>
+      <c r="C90" s="3" t="inlineStr"/>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>UNIAO0000</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>-197761.05</v>
+      </c>
       <c r="F90" s="4" t="n">
-        <v>-28472.65</v>
+        <v>-198011.05</v>
       </c>
     </row>
     <row r="91">
@@ -11487,992 +11561,16 @@
           <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
         </is>
       </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>335925100034</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr"/>
+      <c r="C91" s="3" t="inlineStr"/>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>UNIAO0000</t>
+        </is>
+      </c>
       <c r="E91" s="3" t="n">
-        <v>1128935.61</v>
+        <v>250</v>
       </c>
       <c r="F91" s="4" t="n">
-        <v>500754.88</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B92" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>335925100035</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr"/>
-      <c r="E92" s="3" t="n">
-        <v>1210.22</v>
-      </c>
-      <c r="F92" s="4" t="n">
-        <v>1210.22</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B93" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>335925100044</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr"/>
-      <c r="E93" s="3" t="n">
-        <v>48436.51</v>
-      </c>
-      <c r="F93" s="4" t="n">
-        <v>48436.51</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B94" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>337434680001</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr"/>
-      <c r="E94" s="3" t="n">
-        <v>33986.4</v>
-      </c>
-      <c r="F94" s="3" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B95" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>343702810001</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr"/>
-      <c r="E95" s="3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F95" s="4" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B96" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>346760210001</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr"/>
-      <c r="E96" s="3" t="inlineStr"/>
-      <c r="F96" s="4" t="n">
-        <v>6579</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="inlineStr">
-        <is>
-          <t>358234100001</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr"/>
-      <c r="E97" s="3" t="n">
-        <v>725.98</v>
-      </c>
-      <c r="F97" s="4" t="n">
-        <v>725.98</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B98" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>377200290003</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr"/>
-      <c r="E98" s="3" t="n">
-        <v>1257.46</v>
-      </c>
-      <c r="F98" s="4" t="n">
-        <v>1257.46</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>389492890001</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr"/>
-      <c r="E99" s="3" t="n">
-        <v>1150</v>
-      </c>
-      <c r="F99" s="4" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B100" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr">
-        <is>
-          <t>403391050001</t>
-        </is>
-      </c>
-      <c r="D100" s="3" t="inlineStr"/>
-      <c r="E100" s="3" t="n">
-        <v>19168.5</v>
-      </c>
-      <c r="F100" s="4" t="n">
-        <v>19168.5</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B101" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>410674700001</t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr"/>
-      <c r="E101" s="3" t="n">
-        <v>13333.33</v>
-      </c>
-      <c r="F101" s="3" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B102" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t>418400260008</t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr"/>
-      <c r="E102" s="3" t="n">
-        <v>19356</v>
-      </c>
-      <c r="F102" s="4" t="n">
-        <v>19356</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B103" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t>424715050001</t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr"/>
-      <c r="E103" s="3" t="inlineStr"/>
-      <c r="F103" s="4" t="n">
-        <v>133485.46</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B104" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>432367430001</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr"/>
-      <c r="E104" s="3" t="n">
-        <v>170.32</v>
-      </c>
-      <c r="F104" s="4" t="n">
-        <v>170.32</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B105" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>436264070006</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr"/>
-      <c r="E105" s="3" t="n">
-        <v>39300</v>
-      </c>
-      <c r="F105" s="4" t="n">
-        <v>39300</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B106" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>436264070007</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr"/>
-      <c r="E106" s="3" t="n">
-        <v>114450</v>
-      </c>
-      <c r="F106" s="4" t="n">
-        <v>114450</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>437168150001</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr"/>
-      <c r="E107" s="3" t="n">
-        <v>455.61</v>
-      </c>
-      <c r="F107" s="3" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B108" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>439482150001</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr"/>
-      <c r="E108" s="3" t="inlineStr"/>
-      <c r="F108" s="4" t="n">
-        <v>1524607.36</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B109" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>439723390001</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr"/>
-      <c r="E109" s="3" t="n">
-        <v>196.45</v>
-      </c>
-      <c r="F109" s="4" t="n">
-        <v>196.45</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B110" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>470105660001</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr"/>
-      <c r="E110" s="3" t="inlineStr"/>
-      <c r="F110" s="4" t="n">
-        <v>-5770</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B111" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>475125910001</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr"/>
-      <c r="E111" s="3" t="inlineStr"/>
-      <c r="F111" s="4" t="n">
-        <v>45640</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B112" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>477108470001</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr"/>
-      <c r="E112" s="3" t="n">
-        <v>155.88</v>
-      </c>
-      <c r="F112" s="4" t="n">
-        <v>155.88</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>477319110001</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr"/>
-      <c r="E113" s="3" t="inlineStr"/>
-      <c r="F113" s="3" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B114" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>479609500001</t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr"/>
-      <c r="E114" s="3" t="n">
-        <v>22993.96</v>
-      </c>
-      <c r="F114" s="4" t="n">
-        <v>26236.38</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B115" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>479609500265</t>
-        </is>
-      </c>
-      <c r="D115" s="3" t="inlineStr"/>
-      <c r="E115" s="3" t="n">
-        <v>1747.26</v>
-      </c>
-      <c r="F115" s="4" t="n">
-        <v>1747.26</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B116" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>479609500643</t>
-        </is>
-      </c>
-      <c r="D116" s="3" t="inlineStr"/>
-      <c r="E116" s="3" t="n">
-        <v>8146.12</v>
-      </c>
-      <c r="F116" s="4" t="n">
-        <v>8146.12</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B117" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C117" s="3" t="inlineStr">
-        <is>
-          <t>479609500945</t>
-        </is>
-      </c>
-      <c r="D117" s="3" t="inlineStr"/>
-      <c r="E117" s="3" t="n">
-        <v>-4464.05</v>
-      </c>
-      <c r="F117" s="4" t="n">
-        <v>-22993.96</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B118" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C118" s="3" t="inlineStr">
-        <is>
-          <t>484370560001</t>
-        </is>
-      </c>
-      <c r="D118" s="3" t="inlineStr"/>
-      <c r="E118" s="3" t="n">
-        <v>-4302.9</v>
-      </c>
-      <c r="F118" s="4" t="n">
-        <v>-4302.9</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B119" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="inlineStr">
-        <is>
-          <t>501170490001</t>
-        </is>
-      </c>
-      <c r="D119" s="3" t="inlineStr"/>
-      <c r="E119" s="3" t="n">
-        <v>1499433.3</v>
-      </c>
-      <c r="F119" s="4" t="n">
-        <v>1426469.61</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B120" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t>501626820001</t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr"/>
-      <c r="E120" s="3" t="inlineStr"/>
-      <c r="F120" s="4" t="n">
-        <v>8323.459999999999</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t>505682260001</t>
-        </is>
-      </c>
-      <c r="D121" s="3" t="inlineStr"/>
-      <c r="E121" s="3" t="n">
-        <v>80513</v>
-      </c>
-      <c r="F121" s="3" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C122" s="3" t="inlineStr">
-        <is>
-          <t>511639100001</t>
-        </is>
-      </c>
-      <c r="D122" s="3" t="inlineStr"/>
-      <c r="E122" s="3" t="n">
-        <v>2400000</v>
-      </c>
-      <c r="F122" s="4" t="n">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>549671780001</t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr"/>
-      <c r="E123" s="3" t="n">
-        <v>4513959</v>
-      </c>
-      <c r="F123" s="4" t="n">
-        <v>4513959</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>563846820001</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr"/>
-      <c r="E124" s="3" t="n">
-        <v>-500</v>
-      </c>
-      <c r="F124" s="4" t="n">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>586263000001</t>
-        </is>
-      </c>
-      <c r="D125" s="3" t="inlineStr"/>
-      <c r="E125" s="3" t="n">
-        <v>191495</v>
-      </c>
-      <c r="F125" s="4" t="n">
-        <v>191495</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B126" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>593294760001</t>
-        </is>
-      </c>
-      <c r="D126" s="3" t="inlineStr"/>
-      <c r="E126" s="3" t="inlineStr"/>
-      <c r="F126" s="3" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B127" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="inlineStr">
-        <is>
-          <t>596699020001</t>
-        </is>
-      </c>
-      <c r="D127" s="3" t="inlineStr"/>
-      <c r="E127" s="3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F127" s="3" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B128" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C128" s="3" t="inlineStr">
-        <is>
-          <t>648269930001</t>
-        </is>
-      </c>
-      <c r="D128" s="3" t="inlineStr"/>
-      <c r="E128" s="3" t="n">
-        <v>474.3</v>
-      </c>
-      <c r="F128" s="3" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B129" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C129" s="3" t="inlineStr">
-        <is>
-          <t>723811890010</t>
-        </is>
-      </c>
-      <c r="D129" s="3" t="inlineStr"/>
-      <c r="E129" s="3" t="n">
-        <v>53518.32</v>
-      </c>
-      <c r="F129" s="4" t="n">
-        <v>46769.37</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B130" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="inlineStr"/>
-      <c r="D130" s="3" t="inlineStr">
-        <is>
-          <t>INPS0000</t>
-        </is>
-      </c>
-      <c r="E130" s="3" t="n">
-        <v>-786170.33</v>
-      </c>
-      <c r="F130" s="4" t="n">
-        <v>-786170.33</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B131" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="inlineStr"/>
-      <c r="D131" s="3" t="inlineStr">
-        <is>
-          <t>MUNIC0000</t>
-        </is>
-      </c>
-      <c r="E131" s="3" t="n">
-        <v>8222.08</v>
-      </c>
-      <c r="F131" s="4" t="n">
-        <v>9445.01</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="inlineStr"/>
-      <c r="D132" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO0000</t>
-        </is>
-      </c>
-      <c r="E132" s="3" t="n">
-        <v>-197761.05</v>
-      </c>
-      <c r="F132" s="4" t="n">
-        <v>-198011.05</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="3" t="inlineStr">
-        <is>
-          <t>1.01.06.02.0001</t>
-        </is>
-      </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t>ADIANTAMENTO A FORNECEDORES NACIONAIS</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr"/>
-      <c r="D133" s="3" t="inlineStr">
-        <is>
-          <t>UNIAO0000</t>
-        </is>
-      </c>
-      <c r="E133" s="3" t="n">
-        <v>250</v>
-      </c>
-      <c r="F133" s="4" t="n">
         <v>250</v>
       </c>
     </row>
@@ -18013,7 +17111,7 @@
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>06/10/2025 09:31:57</t>
+          <t>06/10/2025 10:22:26</t>
         </is>
       </c>
     </row>

--- a/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-05-2025_a_01-06-2025_ADIANTAMENTOS.xlsx
@@ -17111,7 +17111,7 @@
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>06/10/2025 10:22:26</t>
+          <t>09/10/2025 10:31:10</t>
         </is>
       </c>
     </row>
